--- a/programacao/14 - Programação Semanal Utilidades_Athos.xlsx
+++ b/programacao/14 - Programação Semanal Utilidades_Athos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/Programação Semanal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="616" documentId="8_{F26479AB-B6DB-430F-AF6D-7BBE334D3765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01B0464A-EFB7-40B9-8469-D52BBDFB5C68}"/>
+  <xr:revisionPtr revIDLastSave="624" documentId="8_{F26479AB-B6DB-430F-AF6D-7BBE334D3765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E42C231-3038-479A-AFDF-060FAA0FA941}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8692,8 +8692,8 @@
   </sheetPr>
   <dimension ref="A2:BM37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="20" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="36" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AA17:AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="31.5" x14ac:dyDescent="0.5"/>
@@ -10159,25 +10159,27 @@
       <c r="X17" s="77"/>
       <c r="Y17" s="77"/>
       <c r="Z17" s="52"/>
-      <c r="AA17" s="76">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="76">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="76">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="76">
-        <v>1</v>
-      </c>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
       <c r="AE17" s="77"/>
       <c r="AF17" s="77"/>
-      <c r="AG17" s="76"/>
-      <c r="AH17" s="76"/>
-      <c r="AI17" s="76"/>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="76"/>
+      <c r="AG17" s="76">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="76">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="76">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="76">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="76">
+        <v>1</v>
+      </c>
       <c r="AL17" s="77"/>
       <c r="AM17" s="77"/>
       <c r="AN17" s="78"/>
@@ -12044,14 +12046,14 @@
   <sheetProtection formatCells="0" insertRows="0" deleteRows="0"/>
   <autoFilter ref="A5:AL37" xr:uid="{8AC1B199-1857-4498-B73F-442B728C308F}"/>
   <mergeCells count="8">
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AL3"/>
     <mergeCell ref="AT3:AZ3"/>
     <mergeCell ref="AM3:AS3"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AO2:AQ2"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN2 AF2 AJ2 R6:AZ37" xr:uid="{FF23CE1D-7BB7-4F71-BC2F-0A189BAA349D}">
@@ -12066,7 +12068,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1447" id="{7A5F4834-3B4E-4EDD-B906-B683826F5A7C}">
+          <x14:cfRule type="iconSet" priority="1452" id="{7A5F4834-3B4E-4EDD-B906-B683826F5A7C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12085,7 +12087,7 @@
           <xm:sqref>R6:R37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1449" id="{1CB5ABA6-367E-48F5-A1A8-5230CA2C3131}">
+          <x14:cfRule type="iconSet" priority="1454" id="{1CB5ABA6-367E-48F5-A1A8-5230CA2C3131}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12104,7 +12106,7 @@
           <xm:sqref>S6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="212" id="{C2928469-E059-4B49-8307-C9D2BF2531A1}">
+          <x14:cfRule type="iconSet" priority="217" id="{C2928469-E059-4B49-8307-C9D2BF2531A1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12123,7 +12125,7 @@
           <xm:sqref>S12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1300" id="{62F10840-7CE0-462E-A981-051ECE30D06B}">
+          <x14:cfRule type="iconSet" priority="1305" id="{62F10840-7CE0-462E-A981-051ECE30D06B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12142,7 +12144,7 @@
           <xm:sqref>S13:S17 S7:S11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="773" id="{80EF73C1-30D0-41A7-B905-4179AD036BC3}">
+          <x14:cfRule type="iconSet" priority="778" id="{80EF73C1-30D0-41A7-B905-4179AD036BC3}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12161,7 +12163,7 @@
           <xm:sqref>S18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="484" id="{451D0479-EEE5-466B-838B-95ABAD3123AA}">
+          <x14:cfRule type="iconSet" priority="489" id="{451D0479-EEE5-466B-838B-95ABAD3123AA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12180,7 +12182,7 @@
           <xm:sqref>S19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="371" id="{806EA5C5-2429-4960-BFA9-1B5150E8FABD}">
+          <x14:cfRule type="iconSet" priority="376" id="{806EA5C5-2429-4960-BFA9-1B5150E8FABD}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12199,7 +12201,7 @@
           <xm:sqref>S25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="383" id="{0F7ED609-BE4F-4A2B-AF4B-5CD4CFA7D83E}">
+          <x14:cfRule type="iconSet" priority="388" id="{0F7ED609-BE4F-4A2B-AF4B-5CD4CFA7D83E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12218,7 +12220,7 @@
           <xm:sqref>S26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="203" id="{3A239FBD-A96C-4495-8E49-955EF603E53B}">
+          <x14:cfRule type="iconSet" priority="208" id="{3A239FBD-A96C-4495-8E49-955EF603E53B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12237,7 +12239,7 @@
           <xm:sqref>S29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="200" id="{12AF3657-2CD1-4C2E-A858-D3416B3096E1}">
+          <x14:cfRule type="iconSet" priority="205" id="{12AF3657-2CD1-4C2E-A858-D3416B3096E1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12256,7 +12258,7 @@
           <xm:sqref>S32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="412" id="{27391E36-6855-48FC-B40D-D8D67FBAC61D}">
+          <x14:cfRule type="iconSet" priority="417" id="{27391E36-6855-48FC-B40D-D8D67FBAC61D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12275,7 +12277,7 @@
           <xm:sqref>S33:S37 S30:S31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="217" id="{D55B6B21-1D4D-443B-BE11-64B92EA9F002}">
+          <x14:cfRule type="iconSet" priority="222" id="{D55B6B21-1D4D-443B-BE11-64B92EA9F002}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12294,7 +12296,7 @@
           <xm:sqref>S20:T20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="211" id="{92174135-028B-4EFD-96ED-8434F0656009}">
+          <x14:cfRule type="iconSet" priority="216" id="{92174135-028B-4EFD-96ED-8434F0656009}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12313,7 +12315,7 @@
           <xm:sqref>S21:T23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="204" id="{2BA14E3A-4535-4D58-BF8A-511AC873EC12}">
+          <x14:cfRule type="iconSet" priority="209" id="{2BA14E3A-4535-4D58-BF8A-511AC873EC12}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12332,7 +12334,7 @@
           <xm:sqref>S24:U24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="342" id="{928DFECD-FD15-4162-BC0F-E56B4D0E5FEE}">
+          <x14:cfRule type="iconSet" priority="347" id="{928DFECD-FD15-4162-BC0F-E56B4D0E5FEE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12351,7 +12353,7 @@
           <xm:sqref>S25:U25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="210" id="{5A11C08E-C640-4B91-B8E2-00276442627D}">
+          <x14:cfRule type="iconSet" priority="215" id="{5A11C08E-C640-4B91-B8E2-00276442627D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12370,7 +12372,7 @@
           <xm:sqref>S27:W27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="209" id="{CDC9AB3E-E971-4C0F-A7ED-E92162600839}">
+          <x14:cfRule type="iconSet" priority="214" id="{CDC9AB3E-E971-4C0F-A7ED-E92162600839}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12389,7 +12391,7 @@
           <xm:sqref>S28:W28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="772" id="{21165C45-787D-4081-BBF8-BCED9EE34564}">
+          <x14:cfRule type="iconSet" priority="777" id="{21165C45-787D-4081-BBF8-BCED9EE34564}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12408,7 +12410,7 @@
           <xm:sqref>T18 T9:W9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="370" id="{AA2FDCF8-1331-4A51-8888-28B522F6BDF1}">
+          <x14:cfRule type="iconSet" priority="375" id="{AA2FDCF8-1331-4A51-8888-28B522F6BDF1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12427,7 +12429,7 @@
           <xm:sqref>T26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="202" id="{D69B4B9A-FDEB-41D7-8DD1-ACECA9C7CE19}">
+          <x14:cfRule type="iconSet" priority="207" id="{D69B4B9A-FDEB-41D7-8DD1-ACECA9C7CE19}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12446,7 +12448,7 @@
           <xm:sqref>T29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="262" id="{2639BB19-DFE3-48C8-A7A0-F364AD127CDC}">
+          <x14:cfRule type="iconSet" priority="267" id="{2639BB19-DFE3-48C8-A7A0-F364AD127CDC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12465,7 +12467,7 @@
           <xm:sqref>T36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1170" id="{111F6E79-4440-42C9-9F71-DCD0BD85CECD}">
+          <x14:cfRule type="iconSet" priority="1175" id="{111F6E79-4440-42C9-9F71-DCD0BD85CECD}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12484,7 +12486,7 @@
           <xm:sqref>T12:U12 T6:U6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="319" id="{35458844-950C-40BC-95FD-A85A244425C8}">
+          <x14:cfRule type="iconSet" priority="324" id="{35458844-950C-40BC-95FD-A85A244425C8}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12503,7 +12505,7 @@
           <xm:sqref>T30:U30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="330" id="{47DF49DB-E6BA-4A55-839B-3C979DB0147A}">
+          <x14:cfRule type="iconSet" priority="335" id="{47DF49DB-E6BA-4A55-839B-3C979DB0147A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12522,7 +12524,7 @@
           <xm:sqref>T31:U31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="199" id="{2612FD1F-C99D-4534-9A64-775835A82E9F}">
+          <x14:cfRule type="iconSet" priority="204" id="{2612FD1F-C99D-4534-9A64-775835A82E9F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12541,7 +12543,7 @@
           <xm:sqref>T32:U32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="337" id="{731B44E3-C882-4AE0-8352-7E382081A75F}">
+          <x14:cfRule type="iconSet" priority="342" id="{731B44E3-C882-4AE0-8352-7E382081A75F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12560,7 +12562,7 @@
           <xm:sqref>T33:U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="297" id="{0B7229C4-8723-49EF-8C60-60651F996EA7}">
+          <x14:cfRule type="iconSet" priority="302" id="{0B7229C4-8723-49EF-8C60-60651F996EA7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12579,7 +12581,7 @@
           <xm:sqref>T35:U35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="274" id="{6343A50C-9250-41F9-95B8-B986D973709F}">
+          <x14:cfRule type="iconSet" priority="279" id="{6343A50C-9250-41F9-95B8-B986D973709F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12598,7 +12600,7 @@
           <xm:sqref>T37:U37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="198" id="{5FDFD118-2696-4916-B0C3-18BD4410C105}">
+          <x14:cfRule type="iconSet" priority="203" id="{5FDFD118-2696-4916-B0C3-18BD4410C105}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12617,7 +12619,7 @@
           <xm:sqref>T34:V34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="180" id="{848DCB35-57D2-42F8-9E45-05BD4CB64956}">
+          <x14:cfRule type="iconSet" priority="185" id="{848DCB35-57D2-42F8-9E45-05BD4CB64956}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12636,7 +12638,7 @@
           <xm:sqref>T7:W7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="21" id="{9A4ED898-8D2C-453F-BD55-5255D7FD62E5}">
+          <x14:cfRule type="iconSet" priority="26" id="{9A4ED898-8D2C-453F-BD55-5255D7FD62E5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12655,7 +12657,7 @@
           <xm:sqref>T8:W8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="141" id="{C936CED1-EC02-4CDA-A906-4F679B04D5BF}">
+          <x14:cfRule type="iconSet" priority="146" id="{C936CED1-EC02-4CDA-A906-4F679B04D5BF}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12674,7 +12676,7 @@
           <xm:sqref>T11:W11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="157" id="{AD242971-AEEB-41BC-806B-CA7672C0687A}">
+          <x14:cfRule type="iconSet" priority="162" id="{AD242971-AEEB-41BC-806B-CA7672C0687A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12693,7 +12695,7 @@
           <xm:sqref>T14:W14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="166" id="{A7ADE163-7C07-42A2-B2B2-B839569382AF}">
+          <x14:cfRule type="iconSet" priority="171" id="{A7ADE163-7C07-42A2-B2B2-B839569382AF}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12712,7 +12714,7 @@
           <xm:sqref>T15:W15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="174" id="{DD791339-4EA0-4047-AFD5-097275B8456D}">
+          <x14:cfRule type="iconSet" priority="179" id="{DD791339-4EA0-4047-AFD5-097275B8456D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12731,7 +12733,7 @@
           <xm:sqref>T16:W17 T10:W10 T13:W13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="339" id="{ED96219F-B43C-47AB-BB5E-CA0020AD4A29}">
+          <x14:cfRule type="iconSet" priority="344" id="{ED96219F-B43C-47AB-BB5E-CA0020AD4A29}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12750,7 +12752,7 @@
           <xm:sqref>U25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="385" id="{AD2A7116-584B-4030-A008-590BD4BE34D8}">
+          <x14:cfRule type="iconSet" priority="390" id="{AD2A7116-584B-4030-A008-590BD4BE34D8}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12769,7 +12771,7 @@
           <xm:sqref>U26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1421" id="{2B98494D-A1A8-49BF-B84D-6EB1B068CA91}">
+          <x14:cfRule type="iconSet" priority="1426" id="{2B98494D-A1A8-49BF-B84D-6EB1B068CA91}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12788,7 +12790,7 @@
           <xm:sqref>U29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="197" id="{DC65CCA8-A425-4EA2-ACA9-B02E7E447760}">
+          <x14:cfRule type="iconSet" priority="202" id="{DC65CCA8-A425-4EA2-ACA9-B02E7E447760}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12807,7 +12809,7 @@
           <xm:sqref>U36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="207" id="{46CB9052-C39D-4F82-BE59-96CB2C41839C}">
+          <x14:cfRule type="iconSet" priority="212" id="{46CB9052-C39D-4F82-BE59-96CB2C41839C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12826,7 +12828,7 @@
           <xm:sqref>U18:W18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="218" id="{BA8A1ACB-B8D0-4338-80B2-B91F5FD607B0}">
+          <x14:cfRule type="iconSet" priority="223" id="{BA8A1ACB-B8D0-4338-80B2-B91F5FD607B0}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12845,7 +12847,7 @@
           <xm:sqref>U19:W19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="825" id="{45CBDBC2-EECF-47C1-9E4F-C81971B5F3CF}">
+          <x14:cfRule type="iconSet" priority="830" id="{45CBDBC2-EECF-47C1-9E4F-C81971B5F3CF}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12864,7 +12866,7 @@
           <xm:sqref>U20:W20 T19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="461" id="{6E6CBAB4-8DA0-4AA8-B15F-2DDA16C8A4C1}">
+          <x14:cfRule type="iconSet" priority="466" id="{6E6CBAB4-8DA0-4AA8-B15F-2DDA16C8A4C1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12883,7 +12885,7 @@
           <xm:sqref>U21:W23 V24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="341" id="{D03CBCC3-CE34-4258-B0F0-B1F728A2D266}">
+          <x14:cfRule type="iconSet" priority="346" id="{D03CBCC3-CE34-4258-B0F0-B1F728A2D266}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12902,7 +12904,7 @@
           <xm:sqref>V25:V26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="362" id="{CD8D4A45-54E8-4509-8031-6430AF6B27C5}">
+          <x14:cfRule type="iconSet" priority="367" id="{CD8D4A45-54E8-4509-8031-6430AF6B27C5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12921,7 +12923,7 @@
           <xm:sqref>V29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="396" id="{83778580-B864-43B5-AE7A-4E527AA1349F}">
+          <x14:cfRule type="iconSet" priority="401" id="{83778580-B864-43B5-AE7A-4E527AA1349F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12940,7 +12942,7 @@
           <xm:sqref>V35 V30:V33 V37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="196" id="{23AFDA0F-08A3-4063-AE1F-37FE4EECB755}">
+          <x14:cfRule type="iconSet" priority="201" id="{23AFDA0F-08A3-4063-AE1F-37FE4EECB755}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12959,7 +12961,7 @@
           <xm:sqref>V36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="219" id="{0AB215D0-3DC5-4457-9A95-79FA616EA08F}">
+          <x14:cfRule type="iconSet" priority="224" id="{0AB215D0-3DC5-4457-9A95-79FA616EA08F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12978,7 +12980,7 @@
           <xm:sqref>V12:W12 V6:W6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="456" id="{4DC33881-17F2-4796-BEAC-5ECD10A7E8F1}">
+          <x14:cfRule type="iconSet" priority="461" id="{4DC33881-17F2-4796-BEAC-5ECD10A7E8F1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -12997,7 +12999,7 @@
           <xm:sqref>W24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="216" id="{8A3BCBE5-4EC3-4746-AB24-545041603BD8}">
+          <x14:cfRule type="iconSet" priority="221" id="{8A3BCBE5-4EC3-4746-AB24-545041603BD8}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13016,7 +13018,7 @@
           <xm:sqref>W25:W26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="361" id="{FE9BA62F-E318-4416-A3B0-FD22E893F4D5}">
+          <x14:cfRule type="iconSet" priority="366" id="{FE9BA62F-E318-4416-A3B0-FD22E893F4D5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13035,7 +13037,7 @@
           <xm:sqref>W29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="195" id="{EC638778-BF9D-4F8F-9A17-B9E72E7002F8}">
+          <x14:cfRule type="iconSet" priority="200" id="{EC638778-BF9D-4F8F-9A17-B9E72E7002F8}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13054,7 +13056,7 @@
           <xm:sqref>W36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="411" id="{90CD40E9-6D72-4155-8195-D7238626236E}">
+          <x14:cfRule type="iconSet" priority="416" id="{90CD40E9-6D72-4155-8195-D7238626236E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13073,7 +13075,7 @@
           <xm:sqref>W37 W30:W35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="225" id="{3026FE22-8884-40D9-8FA7-97E7D66A3BE1}">
+          <x14:cfRule type="iconSet" priority="230" id="{3026FE22-8884-40D9-8FA7-97E7D66A3BE1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13092,7 +13094,7 @@
           <xm:sqref>Z8:Z9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="191" id="{87003109-EBEC-49A6-A259-E22966B24286}">
+          <x14:cfRule type="iconSet" priority="196" id="{87003109-EBEC-49A6-A259-E22966B24286}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13111,7 +13113,7 @@
           <xm:sqref>Z12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="160" id="{AA5EE638-6CC5-4C39-85B0-DD4634FDCB11}">
+          <x14:cfRule type="iconSet" priority="165" id="{AA5EE638-6CC5-4C39-85B0-DD4634FDCB11}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13130,7 +13132,7 @@
           <xm:sqref>Z15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="236" id="{D4DC8FF5-144D-4CDE-AA32-F7594514E69D}">
+          <x14:cfRule type="iconSet" priority="241" id="{D4DC8FF5-144D-4CDE-AA32-F7594514E69D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13149,7 +13151,7 @@
           <xm:sqref>Z18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="366" id="{50CC13DE-3A8E-4635-9AFB-12B47B39F46C}">
+          <x14:cfRule type="iconSet" priority="371" id="{50CC13DE-3A8E-4635-9AFB-12B47B39F46C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13168,7 +13170,7 @@
           <xm:sqref>Z26:Z27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="313" id="{6B955E7A-216D-41A1-9DFB-8EA4CBA8CEF7}">
+          <x14:cfRule type="iconSet" priority="318" id="{6B955E7A-216D-41A1-9DFB-8EA4CBA8CEF7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13187,7 +13189,7 @@
           <xm:sqref>Z30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="303" id="{EB2F6B1D-74C9-41FC-81D2-68EFB50B322F}">
+          <x14:cfRule type="iconSet" priority="308" id="{EB2F6B1D-74C9-41FC-81D2-68EFB50B322F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13206,7 +13208,7 @@
           <xm:sqref>Z32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="280" id="{4C2480AD-A882-46A5-B3FE-44C1C0EB7DB3}">
+          <x14:cfRule type="iconSet" priority="285" id="{4C2480AD-A882-46A5-B3FE-44C1C0EB7DB3}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13225,7 +13227,7 @@
           <xm:sqref>Z34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="257" id="{AFF6721C-DE7C-42FE-B096-0587CED45FD1}">
+          <x14:cfRule type="iconSet" priority="262" id="{AFF6721C-DE7C-42FE-B096-0587CED45FD1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13244,7 +13246,7 @@
           <xm:sqref>Z36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="5" id="{49E3FDE6-0211-4A3C-A8F6-5C6D782EC202}">
+          <x14:cfRule type="iconSet" priority="10" id="{49E3FDE6-0211-4A3C-A8F6-5C6D782EC202}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13263,7 +13265,7 @@
           <xm:sqref>Z25:AA25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="360" id="{EA12031E-E23F-4043-AD55-2304C3DFDE5D}">
+          <x14:cfRule type="iconSet" priority="365" id="{EA12031E-E23F-4043-AD55-2304C3DFDE5D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13282,7 +13284,7 @@
           <xm:sqref>Z29:AA29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="328" id="{5F27AC34-9640-43D6-8701-8281F2EAFFE2}">
+          <x14:cfRule type="iconSet" priority="333" id="{5F27AC34-9640-43D6-8701-8281F2EAFFE2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13301,7 +13303,7 @@
           <xm:sqref>Z31:AA31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="187" id="{3DEB44B2-4582-4BB6-90B2-3A9D625F254B}">
+          <x14:cfRule type="iconSet" priority="192" id="{3DEB44B2-4582-4BB6-90B2-3A9D625F254B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13320,7 +13322,7 @@
           <xm:sqref>Z6:AC6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1425" id="{B960D9E0-9A7D-468F-8F67-D50C21409F5C}">
+          <x14:cfRule type="iconSet" priority="1430" id="{B960D9E0-9A7D-468F-8F67-D50C21409F5C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13339,7 +13341,7 @@
           <xm:sqref>Z28:AC28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="335" id="{CFB34B3E-79CC-412C-926A-DD4202AECD25}">
+          <x14:cfRule type="iconSet" priority="340" id="{CFB34B3E-79CC-412C-926A-DD4202AECD25}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13358,7 +13360,7 @@
           <xm:sqref>Z33:AC33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="295" id="{494FDFB1-B850-4A83-A6E3-B5F4DB02E268}">
+          <x14:cfRule type="iconSet" priority="300" id="{494FDFB1-B850-4A83-A6E3-B5F4DB02E268}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13377,7 +13379,7 @@
           <xm:sqref>Z35:AC35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="272" id="{0FCF32E4-7197-4A70-9054-24DB764D048D}">
+          <x14:cfRule type="iconSet" priority="277" id="{0FCF32E4-7197-4A70-9054-24DB764D048D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13396,7 +13398,7 @@
           <xm:sqref>Z37:AC37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="176" id="{964C78AC-148B-4C29-AE47-AF523F96EC99}">
+          <x14:cfRule type="iconSet" priority="181" id="{964C78AC-148B-4C29-AE47-AF523F96EC99}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13415,7 +13417,7 @@
           <xm:sqref>Z7:AD7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="137" id="{9CE92DAA-ABD2-45CC-8C48-33A33B1821D1}">
+          <x14:cfRule type="iconSet" priority="142" id="{9CE92DAA-ABD2-45CC-8C48-33A33B1821D1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13434,7 +13436,7 @@
           <xm:sqref>Z11:AD11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="153" id="{CE3D5C59-C860-420E-BD3F-D42456A2B00A}">
+          <x14:cfRule type="iconSet" priority="158" id="{CE3D5C59-C860-420E-BD3F-D42456A2B00A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13453,7 +13455,7 @@
           <xm:sqref>Z14:AD14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="170" id="{B2619C7F-F896-4F78-B94D-601C6F3969C9}">
+          <x14:cfRule type="iconSet" priority="175" id="{B2619C7F-F896-4F78-B94D-601C6F3969C9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13472,7 +13474,7 @@
           <xm:sqref>Z16:AD16 Z10:AD10 Z13:AD13 Z17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="466" id="{F95C1A9A-4F15-4370-A938-A4BD75F24C42}">
+          <x14:cfRule type="iconSet" priority="471" id="{F95C1A9A-4F15-4370-A938-A4BD75F24C42}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13491,7 +13493,7 @@
           <xm:sqref>Z19:AD20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="443" id="{17AC57DF-A8B8-4C97-BE6B-039DC9927B35}">
+          <x14:cfRule type="iconSet" priority="448" id="{17AC57DF-A8B8-4C97-BE6B-039DC9927B35}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13510,7 +13512,7 @@
           <xm:sqref>Z21:AD23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="440" id="{7A1053A9-BA40-4B66-B63B-28DEC9FEE07A}">
+          <x14:cfRule type="iconSet" priority="445" id="{7A1053A9-BA40-4B66-B63B-28DEC9FEE07A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13529,7 +13531,7 @@
           <xm:sqref>Z24:AD24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="190" id="{3B5F29FC-CEB7-42EB-AD96-E9C48FB4AB5E}">
+          <x14:cfRule type="iconSet" priority="195" id="{3B5F29FC-CEB7-42EB-AD96-E9C48FB4AB5E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13548,7 +13550,26 @@
           <xm:sqref>AA12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="379" id="{E1552DCE-C2FB-4D3C-A69C-F092B7D9601E}">
+          <x14:cfRule type="iconSet" priority="6" id="{B118DF70-3A65-44E2-80F4-D70F1F580C19}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AA17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="384" id="{E1552DCE-C2FB-4D3C-A69C-F092B7D9601E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13567,7 +13588,7 @@
           <xm:sqref>AA26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="365" id="{C7C1719A-FF17-4799-BEC2-77840583BAA1}">
+          <x14:cfRule type="iconSet" priority="370" id="{C7C1719A-FF17-4799-BEC2-77840583BAA1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13586,7 +13607,7 @@
           <xm:sqref>AA27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="312" id="{A54AB1DA-BAEB-4EEE-B1BE-9747C3D94A54}">
+          <x14:cfRule type="iconSet" priority="317" id="{A54AB1DA-BAEB-4EEE-B1BE-9747C3D94A54}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13605,7 +13626,7 @@
           <xm:sqref>AA30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="302" id="{F05D2B1B-4CD5-466C-ACAD-65DBAD48EEB5}">
+          <x14:cfRule type="iconSet" priority="307" id="{F05D2B1B-4CD5-466C-ACAD-65DBAD48EEB5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13624,7 +13645,7 @@
           <xm:sqref>AA32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="279" id="{8303018F-E569-4123-8354-8A64B4FA8C2A}">
+          <x14:cfRule type="iconSet" priority="284" id="{8303018F-E569-4123-8354-8A64B4FA8C2A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13643,7 +13664,7 @@
           <xm:sqref>AA34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="256" id="{DB842CC7-67E7-45CC-8E17-73D712C73E1B}">
+          <x14:cfRule type="iconSet" priority="261" id="{DB842CC7-67E7-45CC-8E17-73D712C73E1B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13662,7 +13683,7 @@
           <xm:sqref>AA36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="117" id="{39803FAC-0CCF-43ED-9DD2-11B749B36915}">
+          <x14:cfRule type="iconSet" priority="122" id="{39803FAC-0CCF-43ED-9DD2-11B749B36915}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13681,7 +13702,7 @@
           <xm:sqref>AA18:AC18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="17" id="{2B76582B-B2A4-40D3-8616-D98808EE0CD2}">
+          <x14:cfRule type="iconSet" priority="22" id="{2B76582B-B2A4-40D3-8616-D98808EE0CD2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13700,7 +13721,7 @@
           <xm:sqref>AA8:AD8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="182" id="{7D8159E9-3C0F-4080-84FC-8B84CB9DD986}">
+          <x14:cfRule type="iconSet" priority="187" id="{7D8159E9-3C0F-4080-84FC-8B84CB9DD986}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13719,7 +13740,7 @@
           <xm:sqref>AA9:AD9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="159" id="{0ECC1925-AD0F-461B-9588-F1CD19E1BD5A}">
+          <x14:cfRule type="iconSet" priority="164" id="{0ECC1925-AD0F-461B-9588-F1CD19E1BD5A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13738,7 +13759,7 @@
           <xm:sqref>AA15:AD15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="189" id="{8EEDEFBB-BCD2-4126-839D-43D4083DA6CA}">
+          <x14:cfRule type="iconSet" priority="194" id="{8EEDEFBB-BCD2-4126-839D-43D4083DA6CA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13757,7 +13778,26 @@
           <xm:sqref>AB12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="352" id="{9C90C53F-87D6-468A-9BE4-6C7DBDAE208A}">
+          <x14:cfRule type="iconSet" priority="7" id="{8628A3EB-1EDD-474F-B0F9-10878B689452}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AB17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="357" id="{9C90C53F-87D6-468A-9BE4-6C7DBDAE208A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13776,7 +13816,7 @@
           <xm:sqref>AB26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="364" id="{1DAC8A87-E55C-47AD-9C7B-2161A3C995FB}">
+          <x14:cfRule type="iconSet" priority="369" id="{1DAC8A87-E55C-47AD-9C7B-2161A3C995FB}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13795,7 +13835,7 @@
           <xm:sqref>AB27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="359" id="{BC0CB61F-60F9-4FBB-BF8D-B6B36FB1D0C4}">
+          <x14:cfRule type="iconSet" priority="364" id="{BC0CB61F-60F9-4FBB-BF8D-B6B36FB1D0C4}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13814,7 +13854,7 @@
           <xm:sqref>AB29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="324" id="{4AEA23C9-589C-4B17-A2FA-7541B10B7525}">
+          <x14:cfRule type="iconSet" priority="329" id="{4AEA23C9-589C-4B17-A2FA-7541B10B7525}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13833,7 +13873,7 @@
           <xm:sqref>AB30:AB32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="291" id="{ADEDBE76-E15C-4D78-9EB4-7FB14D8F3ACA}">
+          <x14:cfRule type="iconSet" priority="296" id="{ADEDBE76-E15C-4D78-9EB4-7FB14D8F3ACA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13852,7 +13892,7 @@
           <xm:sqref>AB34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="268" id="{B7577E54-27C2-47B4-A8B2-8AC0C6484651}">
+          <x14:cfRule type="iconSet" priority="273" id="{B7577E54-27C2-47B4-A8B2-8AC0C6484651}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13871,7 +13911,7 @@
           <xm:sqref>AB36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="382" id="{AFDE91BA-A6DF-4832-B28F-53CAB2B4EB4C}">
+          <x14:cfRule type="iconSet" priority="387" id="{AFDE91BA-A6DF-4832-B28F-53CAB2B4EB4C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13890,7 +13930,7 @@
           <xm:sqref>AB25:AD25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="188" id="{C85DBE3E-F368-4252-AADF-955ABA5A1EB2}">
+          <x14:cfRule type="iconSet" priority="193" id="{C85DBE3E-F368-4252-AADF-955ABA5A1EB2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13909,7 +13949,26 @@
           <xm:sqref>AC12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="351" id="{8C027B48-6429-42DA-8885-D642264A3876}">
+          <x14:cfRule type="iconSet" priority="8" id="{7E8785AE-CE2F-4AE1-9C0E-8DD819A9DAA1}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AC17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="356" id="{8C027B48-6429-42DA-8885-D642264A3876}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13928,7 +13987,7 @@
           <xm:sqref>AC26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="363" id="{D096DF6F-90EE-498D-89E4-4441737ADB15}">
+          <x14:cfRule type="iconSet" priority="368" id="{D096DF6F-90EE-498D-89E4-4441737ADB15}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13947,7 +14006,7 @@
           <xm:sqref>AC27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="235" id="{59C9A0D3-2FDC-4B1D-825C-9D752606166D}">
+          <x14:cfRule type="iconSet" priority="240" id="{59C9A0D3-2FDC-4B1D-825C-9D752606166D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13966,7 +14025,7 @@
           <xm:sqref>AC30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="323" id="{EE21E80D-8FAC-448A-A0FA-6FD8F460D31C}">
+          <x14:cfRule type="iconSet" priority="328" id="{EE21E80D-8FAC-448A-A0FA-6FD8F460D31C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -13985,7 +14044,7 @@
           <xm:sqref>AC31:AC32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="290" id="{A0A90585-9B31-4367-A700-A1AEF9EF6030}">
+          <x14:cfRule type="iconSet" priority="295" id="{A0A90585-9B31-4367-A700-A1AEF9EF6030}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14004,7 +14063,7 @@
           <xm:sqref>AC34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="267" id="{705B14D7-E2FD-427C-8E81-0051C5C2728F}">
+          <x14:cfRule type="iconSet" priority="272" id="{705B14D7-E2FD-427C-8E81-0051C5C2728F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14023,7 +14082,7 @@
           <xm:sqref>AC36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="358" id="{54790A7D-4DF0-4398-A961-1CAE62BA1DA1}">
+          <x14:cfRule type="iconSet" priority="363" id="{54790A7D-4DF0-4398-A961-1CAE62BA1DA1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14042,7 +14101,7 @@
           <xm:sqref>AC29:AD29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1220" id="{0A9EC195-3D43-47C8-8C66-99A253B97FB7}">
+          <x14:cfRule type="iconSet" priority="1225" id="{0A9EC195-3D43-47C8-8C66-99A253B97FB7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14061,7 +14120,7 @@
           <xm:sqref>AD6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="530" id="{2AE9DD30-B285-4F1E-B21E-86884AC6B443}">
+          <x14:cfRule type="iconSet" priority="535" id="{2AE9DD30-B285-4F1E-B21E-86884AC6B443}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14080,7 +14139,26 @@
           <xm:sqref>AD12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="777" id="{B38BAAB7-2A04-4989-BAB3-CD42362D1E45}">
+          <x14:cfRule type="iconSet" priority="9" id="{7F97C0FB-08AF-4CEC-A1EE-9CF883526CD8}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AD17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="782" id="{B38BAAB7-2A04-4989-BAB3-CD42362D1E45}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14099,7 +14177,7 @@
           <xm:sqref>AD18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="350" id="{E573AD72-F772-4F27-9EF9-9B510B490E4C}">
+          <x14:cfRule type="iconSet" priority="355" id="{E573AD72-F772-4F27-9EF9-9B510B490E4C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14118,7 +14196,7 @@
           <xm:sqref>AD26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="374" id="{289B13C0-16C2-44DC-B871-1CF025F9C88A}">
+          <x14:cfRule type="iconSet" priority="379" id="{289B13C0-16C2-44DC-B871-1CF025F9C88A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14137,7 +14215,7 @@
           <xm:sqref>AD27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="234" id="{73556D61-F1FD-49FA-8E88-57F68ECE1106}">
+          <x14:cfRule type="iconSet" priority="239" id="{73556D61-F1FD-49FA-8E88-57F68ECE1106}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14156,7 +14234,7 @@
           <xm:sqref>AD30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="389" id="{AFA2EFBB-97ED-45FC-8C9E-DF790ED1C403}">
+          <x14:cfRule type="iconSet" priority="394" id="{AFA2EFBB-97ED-45FC-8C9E-DF790ED1C403}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14175,7 +14253,7 @@
           <xm:sqref>AD31:AD37 AD28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="181" id="{31EE09D1-DAA2-4997-9CEA-A83E675F0FF9}">
+          <x14:cfRule type="iconSet" priority="186" id="{31EE09D1-DAA2-4997-9CEA-A83E675F0FF9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14194,7 +14272,7 @@
           <xm:sqref>AE7:AF7 X7:Y7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="22" id="{98E7BA7E-1475-469B-94D8-DAB9E6852299}">
+          <x14:cfRule type="iconSet" priority="27" id="{98E7BA7E-1475-469B-94D8-DAB9E6852299}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14213,7 +14291,7 @@
           <xm:sqref>AE8:AF8 X8:Y8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="774" id="{C29F2D24-785C-49E4-821D-15F9FA41C946}">
+          <x14:cfRule type="iconSet" priority="779" id="{C29F2D24-785C-49E4-821D-15F9FA41C946}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14232,7 +14310,7 @@
           <xm:sqref>AE9:AF9 X9:Y9 X18:Y18 AE18:AF18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="142" id="{C5D19F85-C5BE-42C5-A10D-D7DFC8E3E1D6}">
+          <x14:cfRule type="iconSet" priority="147" id="{C5D19F85-C5BE-42C5-A10D-D7DFC8E3E1D6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14251,7 +14329,7 @@
           <xm:sqref>AE11:AF11 X11:Y11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1316" id="{AFC941F2-CFD6-4A49-8715-56417F2BD7E1}">
+          <x14:cfRule type="iconSet" priority="1321" id="{AFC941F2-CFD6-4A49-8715-56417F2BD7E1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14270,7 +14348,7 @@
           <xm:sqref>AE12:AF12 X6:Y6 X12:Y12 AK12:AM12 AE6:AK6 AP13:AP24 AL13:AM24 AP12:AT12 AN6:AT6 AP7:AP11 AL6:AM11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="158" id="{830DE817-C8F6-4DFB-B7BC-D41F37BC875F}">
+          <x14:cfRule type="iconSet" priority="163" id="{830DE817-C8F6-4DFB-B7BC-D41F37BC875F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14289,7 +14367,7 @@
           <xm:sqref>AE14:AF14 X14:Y14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="167" id="{33AC5061-40B7-40BD-AEC7-A809508EB11F}">
+          <x14:cfRule type="iconSet" priority="172" id="{33AC5061-40B7-40BD-AEC7-A809508EB11F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14308,7 +14386,7 @@
           <xm:sqref>AE15:AF15 X15:Y15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="175" id="{2A5AE40E-BC03-4861-B2D7-4FA632564277}">
+          <x14:cfRule type="iconSet" priority="180" id="{2A5AE40E-BC03-4861-B2D7-4FA632564277}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14327,7 +14405,7 @@
           <xm:sqref>AE16:AF17 AE10:AF10 X10:Y10 X16:Y17 AE13:AF13 X13:Y13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="851" id="{F4E2481A-A566-4C2C-ABB1-2DE395475775}">
+          <x14:cfRule type="iconSet" priority="856" id="{F4E2481A-A566-4C2C-ABB1-2DE395475775}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14346,7 +14424,7 @@
           <xm:sqref>AE19:AF20 X19:Y20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="462" id="{A0FF1222-B69A-4408-AAF7-18B10C2F2046}">
+          <x14:cfRule type="iconSet" priority="467" id="{A0FF1222-B69A-4408-AAF7-18B10C2F2046}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14365,7 +14443,7 @@
           <xm:sqref>AE21:AF24 X21:Y24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1394" id="{0C7A6FB0-CBFA-4EFC-A325-0425AC7B9A04}">
+          <x14:cfRule type="iconSet" priority="1399" id="{0C7A6FB0-CBFA-4EFC-A325-0425AC7B9A04}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14384,7 +14462,7 @@
           <xm:sqref>AE25:AF26 X25:Y26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1429" id="{DE24CAB5-CEA7-423D-A8A5-7BFED31B5DDC}">
+          <x14:cfRule type="iconSet" priority="1434" id="{DE24CAB5-CEA7-423D-A8A5-7BFED31B5DDC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14403,7 +14481,7 @@
           <xm:sqref>AE27:AF28 X27:Y28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1427" id="{866564E2-25BD-4D7B-8CC8-9F00627A4E9C}">
+          <x14:cfRule type="iconSet" priority="1432" id="{866564E2-25BD-4D7B-8CC8-9F00627A4E9C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14422,7 +14500,7 @@
           <xm:sqref>AE29:AF29 X29:Y29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="320" id="{9763B5FB-D6C4-4D1E-AA4D-BE7D482B64AE}">
+          <x14:cfRule type="iconSet" priority="325" id="{9763B5FB-D6C4-4D1E-AA4D-BE7D482B64AE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14441,7 +14519,7 @@
           <xm:sqref>AE30:AF30 X30:Y30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="331" id="{DF156588-FA09-4987-9D94-668CD73A8B95}">
+          <x14:cfRule type="iconSet" priority="336" id="{DF156588-FA09-4987-9D94-668CD73A8B95}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14460,7 +14538,7 @@
           <xm:sqref>AE31:AF31 X31:Y31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="309" id="{3F727429-6498-4B24-A475-E81D300DA4D6}">
+          <x14:cfRule type="iconSet" priority="314" id="{3F727429-6498-4B24-A475-E81D300DA4D6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14479,7 +14557,7 @@
           <xm:sqref>AE32:AF32 X32:Y32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="338" id="{AA3B9183-CDB6-466B-A9C6-D47CEB5635E7}">
+          <x14:cfRule type="iconSet" priority="343" id="{AA3B9183-CDB6-466B-A9C6-D47CEB5635E7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14498,7 +14576,7 @@
           <xm:sqref>AE33:AF33 X33:Y33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="286" id="{ED5D5A3C-8C25-48BD-A0D3-642BC457F829}">
+          <x14:cfRule type="iconSet" priority="291" id="{ED5D5A3C-8C25-48BD-A0D3-642BC457F829}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14517,7 +14595,7 @@
           <xm:sqref>AE34:AF34 X34:Y34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="298" id="{835E3A1D-79D0-48AB-99EB-886B8D415D59}">
+          <x14:cfRule type="iconSet" priority="303" id="{835E3A1D-79D0-48AB-99EB-886B8D415D59}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14536,7 +14614,7 @@
           <xm:sqref>AE35:AF35 X35:Y35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="263" id="{1E520B11-7376-4F78-B84F-4E7252DD6B76}">
+          <x14:cfRule type="iconSet" priority="268" id="{1E520B11-7376-4F78-B84F-4E7252DD6B76}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14555,7 +14633,7 @@
           <xm:sqref>AE36:AF36 X36:Y36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="275" id="{25568BE8-BAB1-498A-BABF-2384B03D6E70}">
+          <x14:cfRule type="iconSet" priority="280" id="{25568BE8-BAB1-498A-BABF-2384B03D6E70}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14574,7 +14652,7 @@
           <xm:sqref>AE37:AF37 X37:Y37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="616" id="{6DB56492-AF5C-4BEE-8074-D27D2E56B5DA}">
+          <x14:cfRule type="iconSet" priority="621" id="{6DB56492-AF5C-4BEE-8074-D27D2E56B5DA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14593,26 +14671,26 @@
           <xm:sqref>AF2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1360" id="{AAA6F91F-7017-42AC-BEB1-FD4AFF888D5F}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AG13:AG18 AG7:AG11</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="437" id="{298A9229-016E-4F84-A821-E4C8AC35E37B}">
+          <x14:cfRule type="iconSet" priority="1365" id="{AAA6F91F-7017-42AC-BEB1-FD4AFF888D5F}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AG13:AG16 AG7:AG11 AG18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="442" id="{298A9229-016E-4F84-A821-E4C8AC35E37B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14631,7 +14709,7 @@
           <xm:sqref>AG20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="322" id="{C5EF7869-B0C9-450A-B47E-B9059602F8F9}">
+          <x14:cfRule type="iconSet" priority="327" id="{C5EF7869-B0C9-450A-B47E-B9059602F8F9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14650,7 +14728,7 @@
           <xm:sqref>AG30:AG32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="388" id="{10D4DF3E-1C88-4522-BB60-86CA9A1CE6DD}">
+          <x14:cfRule type="iconSet" priority="393" id="{10D4DF3E-1C88-4522-BB60-86CA9A1CE6DD}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14669,7 +14747,7 @@
           <xm:sqref>AG33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="289" id="{6E7C7A3A-AA1F-40E9-BB6F-C5377EDE99B9}">
+          <x14:cfRule type="iconSet" priority="294" id="{6E7C7A3A-AA1F-40E9-BB6F-C5377EDE99B9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14688,7 +14766,7 @@
           <xm:sqref>AG34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="300" id="{F5430D08-8499-4A95-8DD4-6E96A9C06F89}">
+          <x14:cfRule type="iconSet" priority="305" id="{F5430D08-8499-4A95-8DD4-6E96A9C06F89}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14707,7 +14785,7 @@
           <xm:sqref>AG35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="277" id="{5BB91E1B-766E-423B-BBB9-4AE653C50729}">
+          <x14:cfRule type="iconSet" priority="282" id="{5BB91E1B-766E-423B-BBB9-4AE653C50729}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14726,7 +14804,7 @@
           <xm:sqref>AG37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="226" id="{CE896E65-AE05-4393-B60A-142F44F8D0D6}">
+          <x14:cfRule type="iconSet" priority="231" id="{CE896E65-AE05-4393-B60A-142F44F8D0D6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14745,7 +14823,7 @@
           <xm:sqref>AG36:AH36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="529" id="{8E0CF1D3-F1E0-4EE9-B0D9-70F3B8BC3465}">
+          <x14:cfRule type="iconSet" priority="534" id="{8E0CF1D3-F1E0-4EE9-B0D9-70F3B8BC3465}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14764,7 +14842,7 @@
           <xm:sqref>AG12:AI12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="465" id="{7F339909-BF32-4C66-B364-625E89D82FD4}">
+          <x14:cfRule type="iconSet" priority="470" id="{7F339909-BF32-4C66-B364-625E89D82FD4}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14783,7 +14861,7 @@
           <xm:sqref>AG19:AK19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="442" id="{CBBC14FD-71AE-416E-9C30-8C9CFB0674D9}">
+          <x14:cfRule type="iconSet" priority="447" id="{CBBC14FD-71AE-416E-9C30-8C9CFB0674D9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14802,7 +14880,7 @@
           <xm:sqref>AG21:AK23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="439" id="{51DDB3FD-B5A4-4738-81E3-F4D68253F437}">
+          <x14:cfRule type="iconSet" priority="444" id="{51DDB3FD-B5A4-4738-81E3-F4D68253F437}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14821,7 +14899,7 @@
           <xm:sqref>AG24:AK24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="381" id="{5C62AFAE-7193-44B0-9625-6ACC1A83D5A6}">
+          <x14:cfRule type="iconSet" priority="386" id="{5C62AFAE-7193-44B0-9625-6ACC1A83D5A6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14840,7 +14918,7 @@
           <xm:sqref>AG25:AK25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="121" id="{9AB9B553-32D7-4365-ABEB-6C686A5716A6}">
+          <x14:cfRule type="iconSet" priority="126" id="{9AB9B553-32D7-4365-ABEB-6C686A5716A6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14859,7 +14937,7 @@
           <xm:sqref>AG26:AK26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="120" id="{7F34FC41-33DA-4572-8134-4EE28DC27186}">
+          <x14:cfRule type="iconSet" priority="125" id="{7F34FC41-33DA-4572-8134-4EE28DC27186}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14878,7 +14956,7 @@
           <xm:sqref>AG27:AK27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="119" id="{8C45E95E-FE6D-4B4A-9F51-1678644BA361}">
+          <x14:cfRule type="iconSet" priority="124" id="{8C45E95E-FE6D-4B4A-9F51-1678644BA361}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14897,7 +14975,7 @@
           <xm:sqref>AG28:AK28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="118" id="{EA6D900B-97D8-4A03-B8ED-78A31E638BD3}">
+          <x14:cfRule type="iconSet" priority="123" id="{EA6D900B-97D8-4A03-B8ED-78A31E638BD3}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14916,7 +14994,7 @@
           <xm:sqref>AG29:AK29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="517" id="{16C2C490-2D93-4769-A8CE-FFB1C0AD3C1D}">
+          <x14:cfRule type="iconSet" priority="522" id="{16C2C490-2D93-4769-A8CE-FFB1C0AD3C1D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14935,7 +15013,7 @@
           <xm:sqref>AH7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="24" id="{B12B1A92-1628-40EE-B496-7F16022EDFCE}">
+          <x14:cfRule type="iconSet" priority="29" id="{B12B1A92-1628-40EE-B496-7F16022EDFCE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14954,7 +15032,7 @@
           <xm:sqref>AH8:AH9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="134" id="{97634958-B17D-4394-8C03-21F720FFCFFC}">
+          <x14:cfRule type="iconSet" priority="139" id="{97634958-B17D-4394-8C03-21F720FFCFFC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14973,7 +15051,7 @@
           <xm:sqref>AH11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="152" id="{07EF87DD-6911-4739-A1BA-5A1A054D4FB5}">
+          <x14:cfRule type="iconSet" priority="157" id="{07EF87DD-6911-4739-A1BA-5A1A054D4FB5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -14992,7 +15070,7 @@
           <xm:sqref>AH14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="129" id="{E2727153-5F2D-4723-B082-9E22CE7A9DBF}">
+          <x14:cfRule type="iconSet" priority="134" id="{E2727153-5F2D-4723-B082-9E22CE7A9DBF}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15011,26 +15089,26 @@
           <xm:sqref>AH15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="169" id="{1EF2DA40-1EB4-434E-BC1A-AE26A5035B76}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AH16:AH17 AH10 AH13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="436" id="{A872C968-4098-429E-B3C4-6065E8B04FD0}">
+          <x14:cfRule type="iconSet" priority="174" id="{1EF2DA40-1EB4-434E-BC1A-AE26A5035B76}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AH16 AH10 AH13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="441" id="{A872C968-4098-429E-B3C4-6065E8B04FD0}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15049,7 +15127,7 @@
           <xm:sqref>AH20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="321" id="{60610A41-58CE-45C2-B263-3945C40D2C85}">
+          <x14:cfRule type="iconSet" priority="326" id="{60610A41-58CE-45C2-B263-3945C40D2C85}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15068,7 +15146,7 @@
           <xm:sqref>AH30:AH31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="278" id="{4EEA2519-9493-4C1E-994A-355BFF579B8D}">
+          <x14:cfRule type="iconSet" priority="283" id="{4EEA2519-9493-4C1E-994A-355BFF579B8D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15087,7 +15165,7 @@
           <xm:sqref>AH34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="299" id="{F1BC81F8-59E8-4ECF-A17A-683AC0404B17}">
+          <x14:cfRule type="iconSet" priority="304" id="{F1BC81F8-59E8-4ECF-A17A-683AC0404B17}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15106,7 +15184,7 @@
           <xm:sqref>AH35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="276" id="{4E75604D-C094-4D1C-976A-C3E8AA70D60E}">
+          <x14:cfRule type="iconSet" priority="281" id="{4E75604D-C094-4D1C-976A-C3E8AA70D60E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15125,7 +15203,7 @@
           <xm:sqref>AH37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="301" id="{FC9587CB-7CA2-43AD-AF8C-821229EA46AC}">
+          <x14:cfRule type="iconSet" priority="306" id="{FC9587CB-7CA2-43AD-AF8C-821229EA46AC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15144,7 +15222,7 @@
           <xm:sqref>AH32:AI32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="311" id="{8EBF58AA-E84B-44B6-9B2B-94F89A5DA262}">
+          <x14:cfRule type="iconSet" priority="316" id="{8EBF58AA-E84B-44B6-9B2B-94F89A5DA262}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15163,7 +15241,7 @@
           <xm:sqref>AH33:AI33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="122" id="{BF0B4737-B1B3-4C28-A2EC-15AD34BEBE44}">
+          <x14:cfRule type="iconSet" priority="127" id="{BF0B4737-B1B3-4C28-A2EC-15AD34BEBE44}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15182,7 +15260,7 @@
           <xm:sqref>AH18:AK18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="516" id="{15F6BA3E-0931-4568-9614-958A3AD76F47}">
+          <x14:cfRule type="iconSet" priority="521" id="{15F6BA3E-0931-4568-9614-958A3AD76F47}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15201,7 +15279,7 @@
           <xm:sqref>AI7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="23" id="{B89E5F8C-C375-4F8A-82FD-C4B0538BB3B5}">
+          <x14:cfRule type="iconSet" priority="28" id="{B89E5F8C-C375-4F8A-82FD-C4B0538BB3B5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15220,7 +15298,7 @@
           <xm:sqref>AI8:AI9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="133" id="{214EF9A4-5812-451D-9724-F249B56A389C}">
+          <x14:cfRule type="iconSet" priority="138" id="{214EF9A4-5812-451D-9724-F249B56A389C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15239,7 +15317,7 @@
           <xm:sqref>AI11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="164" id="{8890883D-C844-4E43-8AEA-3AC81EA0A53E}">
+          <x14:cfRule type="iconSet" priority="169" id="{8890883D-C844-4E43-8AEA-3AC81EA0A53E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15258,7 +15336,7 @@
           <xm:sqref>AI14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="128" id="{52B094A2-8015-49BF-B9E1-162403F5D438}">
+          <x14:cfRule type="iconSet" priority="133" id="{52B094A2-8015-49BF-B9E1-162403F5D438}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15277,26 +15355,26 @@
           <xm:sqref>AI15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="168" id="{65E2A2CA-9316-4893-8620-075EE51FB4BC}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AI16:AI17 AI10 AI13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="435" id="{043E61F7-973C-402D-AAFC-D93979451763}">
+          <x14:cfRule type="iconSet" priority="173" id="{65E2A2CA-9316-4893-8620-075EE51FB4BC}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AI16 AI10 AI13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="440" id="{043E61F7-973C-402D-AAFC-D93979451763}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15315,7 +15393,7 @@
           <xm:sqref>AI20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="231" id="{06E7439D-5450-44E8-9E86-97D0FFD23E2D}">
+          <x14:cfRule type="iconSet" priority="236" id="{06E7439D-5450-44E8-9E86-97D0FFD23E2D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15334,7 +15412,7 @@
           <xm:sqref>AI34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="288" id="{81F5133F-976F-44E6-92B1-6AF2C72CAEE1}">
+          <x14:cfRule type="iconSet" priority="293" id="{81F5133F-976F-44E6-92B1-6AF2C72CAEE1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15353,7 +15431,7 @@
           <xm:sqref>AI35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="260" id="{E1FDC543-0409-48C8-8702-4A60FCBC9D76}">
+          <x14:cfRule type="iconSet" priority="265" id="{E1FDC543-0409-48C8-8702-4A60FCBC9D76}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15372,7 +15450,7 @@
           <xm:sqref>AI36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="265" id="{0E119FCE-C204-4D8C-8B56-7A4FADE487D2}">
+          <x14:cfRule type="iconSet" priority="270" id="{0E119FCE-C204-4D8C-8B56-7A4FADE487D2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15391,7 +15469,7 @@
           <xm:sqref>AI37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="316" id="{A0CD0322-EF89-4A75-8F7B-4B495CB62FD1}">
+          <x14:cfRule type="iconSet" priority="321" id="{A0CD0322-EF89-4A75-8F7B-4B495CB62FD1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15410,7 +15488,7 @@
           <xm:sqref>AI30:AK30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="327" id="{8C7968A8-70C7-4B86-8481-E08B3DDB3B83}">
+          <x14:cfRule type="iconSet" priority="332" id="{8C7968A8-70C7-4B86-8481-E08B3DDB3B83}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15429,7 +15507,7 @@
           <xm:sqref>AI31:AK31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="615" id="{4330D380-CA1D-43A4-BFF5-CE753D99AAEB}">
+          <x14:cfRule type="iconSet" priority="620" id="{4330D380-CA1D-43A4-BFF5-CE753D99AAEB}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15448,7 +15526,7 @@
           <xm:sqref>AJ2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="15" id="{9D4A58E8-E03A-4227-BE2A-61796A5C825B}">
+          <x14:cfRule type="iconSet" priority="20" id="{9D4A58E8-E03A-4227-BE2A-61796A5C825B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15467,7 +15545,7 @@
           <xm:sqref>AJ8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="125" id="{47BECFDB-FA58-481F-A887-87BB8F1B9B48}">
+          <x14:cfRule type="iconSet" priority="130" id="{47BECFDB-FA58-481F-A887-87BB8F1B9B48}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15486,7 +15564,7 @@
           <xm:sqref>AJ12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="131" id="{ED310DD2-5EC8-4F27-849E-1F9F5E4F6979}">
+          <x14:cfRule type="iconSet" priority="136" id="{ED310DD2-5EC8-4F27-849E-1F9F5E4F6979}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15505,7 +15583,7 @@
           <xm:sqref>AJ13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="127" id="{41E0EC93-D6CD-4BC7-B7C1-62AE4519103D}">
+          <x14:cfRule type="iconSet" priority="132" id="{41E0EC93-D6CD-4BC7-B7C1-62AE4519103D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15524,7 +15602,7 @@
           <xm:sqref>AJ15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="434" id="{9992FEC2-A9FB-4989-9EED-77AC05F224A6}">
+          <x14:cfRule type="iconSet" priority="439" id="{9992FEC2-A9FB-4989-9EED-77AC05F224A6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15543,7 +15621,7 @@
           <xm:sqref>AJ20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="232" id="{51B9C5D1-0D68-4A69-9BE0-F1F4371DC929}">
+          <x14:cfRule type="iconSet" priority="237" id="{51B9C5D1-0D68-4A69-9BE0-F1F4371DC929}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15562,7 +15640,7 @@
           <xm:sqref>AJ32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="229" id="{D3D979E5-CEC7-4753-AF18-EB8D5092B247}">
+          <x14:cfRule type="iconSet" priority="234" id="{D3D979E5-CEC7-4753-AF18-EB8D5092B247}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15581,7 +15659,7 @@
           <xm:sqref>AJ34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="287" id="{2144F880-69A2-44E6-9D9C-A701A294FEE9}">
+          <x14:cfRule type="iconSet" priority="292" id="{2144F880-69A2-44E6-9D9C-A701A294FEE9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15600,7 +15678,7 @@
           <xm:sqref>AJ35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="264" id="{9329ADDE-A39C-4149-9F4D-97D3D23F7E9B}">
+          <x14:cfRule type="iconSet" priority="269" id="{9329ADDE-A39C-4149-9F4D-97D3D23F7E9B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15619,7 +15697,7 @@
           <xm:sqref>AJ37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="179" id="{9CDC65BB-73F6-4676-A115-2D5386FC58E3}">
+          <x14:cfRule type="iconSet" priority="184" id="{9CDC65BB-73F6-4676-A115-2D5386FC58E3}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15638,7 +15716,7 @@
           <xm:sqref>AJ7:AK7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="515" id="{36818239-BA25-44AB-B698-81581A35B1ED}">
+          <x14:cfRule type="iconSet" priority="520" id="{36818239-BA25-44AB-B698-81581A35B1ED}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15657,7 +15735,7 @@
           <xm:sqref>AJ9:AK9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="140" id="{61642263-0E70-47AD-840D-8A249C8B6DA1}">
+          <x14:cfRule type="iconSet" priority="145" id="{61642263-0E70-47AD-840D-8A249C8B6DA1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15676,7 +15754,7 @@
           <xm:sqref>AJ11:AK11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="156" id="{E174C544-BC7D-4DE3-97C0-68DEEB0D45BA}">
+          <x14:cfRule type="iconSet" priority="161" id="{E174C544-BC7D-4DE3-97C0-68DEEB0D45BA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15695,26 +15773,26 @@
           <xm:sqref>AJ14:AK14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="173" id="{9D1DC55D-804D-4F91-8735-A0EE3AAD59BA}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AJ16:AK17 AJ10</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="310" id="{08BFEAFB-50A7-455D-B00A-3AF29C979C8B}">
+          <x14:cfRule type="iconSet" priority="178" id="{9D1DC55D-804D-4F91-8735-A0EE3AAD59BA}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AJ16:AK16 AJ10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="315" id="{08BFEAFB-50A7-455D-B00A-3AF29C979C8B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15733,7 +15811,7 @@
           <xm:sqref>AJ33:AK33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="227" id="{83FA25D8-C511-4280-BEEA-93EB9F31DFF0}">
+          <x14:cfRule type="iconSet" priority="232" id="{83FA25D8-C511-4280-BEEA-93EB9F31DFF0}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15752,7 +15830,7 @@
           <xm:sqref>AJ36:AK36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="14" id="{B4AB2EF9-9FA3-4E08-A9D1-A812536F9F5A}">
+          <x14:cfRule type="iconSet" priority="19" id="{B4AB2EF9-9FA3-4E08-A9D1-A812536F9F5A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15771,7 +15849,7 @@
           <xm:sqref>AK8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="123" id="{16B129F8-F662-4D9D-B671-28A6F85E2419}">
+          <x14:cfRule type="iconSet" priority="128" id="{16B129F8-F662-4D9D-B671-28A6F85E2419}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15790,7 +15868,7 @@
           <xm:sqref>AK10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="130" id="{9AB7DFAA-1053-4A37-A24A-55C2B02431AF}">
+          <x14:cfRule type="iconSet" priority="135" id="{9AB7DFAA-1053-4A37-A24A-55C2B02431AF}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15809,7 +15887,7 @@
           <xm:sqref>AK13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="126" id="{CD0F9761-11C9-4964-A759-4C1140FADEEC}">
+          <x14:cfRule type="iconSet" priority="131" id="{CD0F9761-11C9-4964-A759-4C1140FADEEC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15828,7 +15906,7 @@
           <xm:sqref>AK15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="433" id="{C6A94F05-F441-415B-AF53-BA4491E919CC}">
+          <x14:cfRule type="iconSet" priority="438" id="{C6A94F05-F441-415B-AF53-BA4491E919CC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15847,7 +15925,7 @@
           <xm:sqref>AK20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="233" id="{44730818-71BF-44EA-8288-9427B1BE14BB}">
+          <x14:cfRule type="iconSet" priority="238" id="{44730818-71BF-44EA-8288-9427B1BE14BB}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15866,7 +15944,7 @@
           <xm:sqref>AK32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="230" id="{F8B7F708-3FAF-4000-BC49-3F19EA3290EE}">
+          <x14:cfRule type="iconSet" priority="235" id="{F8B7F708-3FAF-4000-BC49-3F19EA3290EE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15885,7 +15963,7 @@
           <xm:sqref>AK34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="254" id="{80E9D653-859D-441A-8F26-21EFC621C092}">
+          <x14:cfRule type="iconSet" priority="259" id="{80E9D653-859D-441A-8F26-21EFC621C092}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15904,7 +15982,7 @@
           <xm:sqref>AK35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="271" id="{8F31DF92-09EE-4C49-AE35-016EF650C61D}">
+          <x14:cfRule type="iconSet" priority="276" id="{8F31DF92-09EE-4C49-AE35-016EF650C61D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15923,7 +16001,7 @@
           <xm:sqref>AK37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1412" id="{EFB0FF6F-C49C-4FEF-84D0-B86F89ACE9B5}">
+          <x14:cfRule type="iconSet" priority="1417" id="{EFB0FF6F-C49C-4FEF-84D0-B86F89ACE9B5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15942,7 +16020,7 @@
           <xm:sqref>AL25:AM26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1440" id="{E8BBD688-C499-4306-B66C-D7624D35C7BA}">
+          <x14:cfRule type="iconSet" priority="1445" id="{E8BBD688-C499-4306-B66C-D7624D35C7BA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15961,7 +16039,7 @@
           <xm:sqref>AL27:AM28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1439" id="{B7C3F95F-D279-4462-A848-AC4408995C35}">
+          <x14:cfRule type="iconSet" priority="1444" id="{B7C3F95F-D279-4462-A848-AC4408995C35}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15980,7 +16058,7 @@
           <xm:sqref>AL29:AM29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="318" id="{30B44C1E-EC58-4158-BD20-78F7064D2B96}">
+          <x14:cfRule type="iconSet" priority="323" id="{30B44C1E-EC58-4158-BD20-78F7064D2B96}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -15999,7 +16077,7 @@
           <xm:sqref>AL30:AM30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="329" id="{703331D2-AC60-481D-9050-0991A2A80F7D}">
+          <x14:cfRule type="iconSet" priority="334" id="{703331D2-AC60-481D-9050-0991A2A80F7D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16018,7 +16096,7 @@
           <xm:sqref>AL31:AM31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="307" id="{A0000FEC-2640-4DBE-9E82-3ADD25EB2FDE}">
+          <x14:cfRule type="iconSet" priority="312" id="{A0000FEC-2640-4DBE-9E82-3ADD25EB2FDE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16037,7 +16115,7 @@
           <xm:sqref>AL32:AM32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="336" id="{6543EC3F-CE49-4434-9B60-CBB0096C33D2}">
+          <x14:cfRule type="iconSet" priority="341" id="{6543EC3F-CE49-4434-9B60-CBB0096C33D2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16056,7 +16134,7 @@
           <xm:sqref>AL33:AM33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="284" id="{144D501A-56E5-41BE-9636-B1948DE42B4C}">
+          <x14:cfRule type="iconSet" priority="289" id="{144D501A-56E5-41BE-9636-B1948DE42B4C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16075,7 +16153,7 @@
           <xm:sqref>AL34:AM34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="296" id="{262215A5-3380-439C-B24E-559068A03B7D}">
+          <x14:cfRule type="iconSet" priority="301" id="{262215A5-3380-439C-B24E-559068A03B7D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16094,7 +16172,7 @@
           <xm:sqref>AL35:AM35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="261" id="{3A196F53-658C-42D6-8158-00A94DEE0A3C}">
+          <x14:cfRule type="iconSet" priority="266" id="{3A196F53-658C-42D6-8158-00A94DEE0A3C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16113,7 +16191,7 @@
           <xm:sqref>AL36:AM36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="273" id="{B73B3387-3C1D-4D61-A684-A0902067BE0F}">
+          <x14:cfRule type="iconSet" priority="278" id="{B73B3387-3C1D-4D61-A684-A0902067BE0F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16132,7 +16210,7 @@
           <xm:sqref>AL37:AM37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="614" id="{3415E45D-560B-4D48-B18C-FD6D1923DF8D}">
+          <x14:cfRule type="iconSet" priority="619" id="{3415E45D-560B-4D48-B18C-FD6D1923DF8D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16151,7 +16229,7 @@
           <xm:sqref>AN2</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="177" id="{4672100A-C98D-4D34-A624-C28370729611}">
+          <x14:cfRule type="iconSet" priority="182" id="{4672100A-C98D-4D34-A624-C28370729611}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16170,7 +16248,7 @@
           <xm:sqref>AN7:AO7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="18" id="{BF019220-7390-44FC-BD75-8584D211633C}">
+          <x14:cfRule type="iconSet" priority="23" id="{BF019220-7390-44FC-BD75-8584D211633C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16189,7 +16267,7 @@
           <xm:sqref>AN8:AO8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="248" id="{189ACC50-2DAE-4210-B8EC-4B918C8ED8D5}">
+          <x14:cfRule type="iconSet" priority="253" id="{189ACC50-2DAE-4210-B8EC-4B918C8ED8D5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16208,7 +16286,7 @@
           <xm:sqref>AN9:AO9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="138" id="{E690653C-6A61-48D3-B38D-048A2706CC79}">
+          <x14:cfRule type="iconSet" priority="143" id="{E690653C-6A61-48D3-B38D-048A2706CC79}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16227,7 +16305,7 @@
           <xm:sqref>AN11:AO11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="511" id="{FE813FDE-B7FF-47BD-8B7B-A193AD5A9B48}">
+          <x14:cfRule type="iconSet" priority="516" id="{FE813FDE-B7FF-47BD-8B7B-A193AD5A9B48}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16246,7 +16324,7 @@
           <xm:sqref>AN12:AO12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="154" id="{8DABA1C9-3274-4E5B-A411-C505E1A5B2C9}">
+          <x14:cfRule type="iconSet" priority="159" id="{8DABA1C9-3274-4E5B-A411-C505E1A5B2C9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16265,7 +16343,7 @@
           <xm:sqref>AN14:AO14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="161" id="{4B9331E1-5869-4884-894E-E43592B96C15}">
+          <x14:cfRule type="iconSet" priority="166" id="{4B9331E1-5869-4884-894E-E43592B96C15}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16284,7 +16362,7 @@
           <xm:sqref>AN15:AO15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="171" id="{A0E7A160-9FF1-411E-8A09-F291D43C0C27}">
+          <x14:cfRule type="iconSet" priority="176" id="{A0E7A160-9FF1-411E-8A09-F291D43C0C27}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16303,7 +16381,7 @@
           <xm:sqref>AN16:AO17 AN10:AO10 AN13:AO13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="247" id="{199FB2F6-866C-46D0-B3CB-81506134FED3}">
+          <x14:cfRule type="iconSet" priority="252" id="{199FB2F6-866C-46D0-B3CB-81506134FED3}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16322,7 +16400,7 @@
           <xm:sqref>AN18:AO18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="246" id="{854CAA5A-184A-4F9E-B009-EA2F8DEEB205}">
+          <x14:cfRule type="iconSet" priority="251" id="{854CAA5A-184A-4F9E-B009-EA2F8DEEB205}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16341,7 +16419,7 @@
           <xm:sqref>AN19:AO19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="245" id="{91C6CE00-63C3-474D-81A7-93DF46C026FD}">
+          <x14:cfRule type="iconSet" priority="250" id="{91C6CE00-63C3-474D-81A7-93DF46C026FD}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16360,7 +16438,7 @@
           <xm:sqref>AN20:AO20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="243" id="{E302CF27-2CAA-4607-8A19-AEEE9592F5A2}">
+          <x14:cfRule type="iconSet" priority="248" id="{E302CF27-2CAA-4607-8A19-AEEE9592F5A2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16379,7 +16457,7 @@
           <xm:sqref>AN21:AO23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="242" id="{F61625C4-8A1C-4751-B273-7FC119D3C577}">
+          <x14:cfRule type="iconSet" priority="247" id="{F61625C4-8A1C-4751-B273-7FC119D3C577}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16398,7 +16476,7 @@
           <xm:sqref>AN24:AO24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="377" id="{C261B773-71DC-4CC3-B867-F3B8313B77ED}">
+          <x14:cfRule type="iconSet" priority="382" id="{C261B773-71DC-4CC3-B867-F3B8313B77ED}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16417,7 +16495,7 @@
           <xm:sqref>AN26:AP26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1441" id="{694ABECF-09E2-4494-9F3F-841F8F443E39}">
+          <x14:cfRule type="iconSet" priority="1446" id="{694ABECF-09E2-4494-9F3F-841F8F443E39}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16436,7 +16514,7 @@
           <xm:sqref>AN28:AP28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="315" id="{278D1ED9-3CA5-4C85-9FE3-3240FFA0747D}">
+          <x14:cfRule type="iconSet" priority="320" id="{278D1ED9-3CA5-4C85-9FE3-3240FFA0747D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16455,7 +16533,7 @@
           <xm:sqref>AN30:AP30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="326" id="{D04A0854-D9E0-433F-AA00-F97EDE360E1B}">
+          <x14:cfRule type="iconSet" priority="331" id="{D04A0854-D9E0-433F-AA00-F97EDE360E1B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16474,7 +16552,7 @@
           <xm:sqref>AN31:AP31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="305" id="{9644715F-67F3-42E7-BC55-2B06C685F60E}">
+          <x14:cfRule type="iconSet" priority="310" id="{9644715F-67F3-42E7-BC55-2B06C685F60E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16493,7 +16571,7 @@
           <xm:sqref>AN32:AP32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="333" id="{075F0343-EAB7-486E-9B33-DC81A96879D7}">
+          <x14:cfRule type="iconSet" priority="338" id="{075F0343-EAB7-486E-9B33-DC81A96879D7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16512,7 +16590,7 @@
           <xm:sqref>AN33:AP33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="282" id="{67BDC216-7961-4FA6-90D9-CB88DD14229A}">
+          <x14:cfRule type="iconSet" priority="287" id="{67BDC216-7961-4FA6-90D9-CB88DD14229A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16531,7 +16609,7 @@
           <xm:sqref>AN34:AP34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="293" id="{991ECCE9-3832-4B40-A670-7B74D3E14210}">
+          <x14:cfRule type="iconSet" priority="298" id="{991ECCE9-3832-4B40-A670-7B74D3E14210}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16550,7 +16628,7 @@
           <xm:sqref>AN35:AP35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="259" id="{363129B8-85DB-470A-9DD8-F2739881F0E7}">
+          <x14:cfRule type="iconSet" priority="264" id="{363129B8-85DB-470A-9DD8-F2739881F0E7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16569,7 +16647,7 @@
           <xm:sqref>AN36:AP36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="270" id="{A6C5F952-0D64-42FA-92A7-DB25C5F01E2D}">
+          <x14:cfRule type="iconSet" priority="275" id="{A6C5F952-0D64-42FA-92A7-DB25C5F01E2D}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16588,7 +16666,7 @@
           <xm:sqref>AN37:AP37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1415" id="{DDD0ACBB-4ABF-4873-A695-C684137ECC79}">
+          <x14:cfRule type="iconSet" priority="1420" id="{DDD0ACBB-4ABF-4873-A695-C684137ECC79}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16607,7 +16685,7 @@
           <xm:sqref>AN25:AR25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="372" id="{FC5E0926-C2E7-4604-965B-FEA56AB3CA22}">
+          <x14:cfRule type="iconSet" priority="377" id="{FC5E0926-C2E7-4604-965B-FEA56AB3CA22}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16626,7 +16704,7 @@
           <xm:sqref>AN27:AR27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1442" id="{F6464820-F3D4-421C-A5C7-869780F9514C}">
+          <x14:cfRule type="iconSet" priority="1447" id="{F6464820-F3D4-421C-A5C7-869780F9514C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16645,7 +16723,7 @@
           <xm:sqref>AN29:AR29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="430" id="{632528AB-2F22-4BB6-BD41-5B5BAD178E7E}">
+          <x14:cfRule type="iconSet" priority="435" id="{632528AB-2F22-4BB6-BD41-5B5BAD178E7E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16664,7 +16742,7 @@
           <xm:sqref>AQ20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="344" id="{DD92ABD1-C654-4586-BEE1-D2BEBF4D44D0}">
+          <x14:cfRule type="iconSet" priority="349" id="{DD92ABD1-C654-4586-BEE1-D2BEBF4D44D0}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16683,7 +16761,7 @@
           <xm:sqref>AQ28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="13" id="{D496F793-0E2D-4DCC-9B53-7EFF13B1C355}">
+          <x14:cfRule type="iconSet" priority="18" id="{D496F793-0E2D-4DCC-9B53-7EFF13B1C355}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16702,7 +16780,7 @@
           <xm:sqref>AQ31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="253" id="{78503A51-3A2C-4AAC-9CA5-5C4B585E8C0F}">
+          <x14:cfRule type="iconSet" priority="258" id="{78503A51-3A2C-4AAC-9CA5-5C4B585E8C0F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16721,7 +16799,7 @@
           <xm:sqref>AQ35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="251" id="{7FC1CCE4-DE57-47F3-84F2-894AC60C10C2}">
+          <x14:cfRule type="iconSet" priority="256" id="{7FC1CCE4-DE57-47F3-84F2-894AC60C10C2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16740,7 +16818,7 @@
           <xm:sqref>AQ37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="178" id="{00B0A730-EB88-4567-81E1-6E4AC0899BE8}">
+          <x14:cfRule type="iconSet" priority="183" id="{00B0A730-EB88-4567-81E1-6E4AC0899BE8}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16759,7 +16837,7 @@
           <xm:sqref>AQ7:AR7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="19" id="{EF8001EA-AD42-4F8C-85D0-3E38F6A75D95}">
+          <x14:cfRule type="iconSet" priority="24" id="{EF8001EA-AD42-4F8C-85D0-3E38F6A75D95}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16778,7 +16856,7 @@
           <xm:sqref>AQ8:AR8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="502" id="{6058923A-652B-4709-A965-89F4BE1A9DB2}">
+          <x14:cfRule type="iconSet" priority="507" id="{6058923A-652B-4709-A965-89F4BE1A9DB2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16797,7 +16875,7 @@
           <xm:sqref>AQ9:AR9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="139" id="{51C9F24E-78F1-4786-9D67-05419451CC15}">
+          <x14:cfRule type="iconSet" priority="144" id="{51C9F24E-78F1-4786-9D67-05419451CC15}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16816,7 +16894,7 @@
           <xm:sqref>AQ11:AR11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="155" id="{CE8F64B4-4309-4734-AA0B-6ACE0838CDAC}">
+          <x14:cfRule type="iconSet" priority="160" id="{CE8F64B4-4309-4734-AA0B-6ACE0838CDAC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16835,7 +16913,7 @@
           <xm:sqref>AQ14:AR14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="162" id="{45599D75-4ED7-4A8C-A316-38AF682324A8}">
+          <x14:cfRule type="iconSet" priority="167" id="{45599D75-4ED7-4A8C-A316-38AF682324A8}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16854,7 +16932,7 @@
           <xm:sqref>AQ15:AR15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="172" id="{5ED4CB6B-42AE-4B76-978A-C22D0F3A3588}">
+          <x14:cfRule type="iconSet" priority="177" id="{5ED4CB6B-42AE-4B76-978A-C22D0F3A3588}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16873,7 +16951,7 @@
           <xm:sqref>AQ16:AR17 AQ10:AR10 AQ13:AR13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="479" id="{9D3ECF0F-3AB9-4DA1-AB66-FD0BF8105433}">
+          <x14:cfRule type="iconSet" priority="484" id="{9D3ECF0F-3AB9-4DA1-AB66-FD0BF8105433}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16892,7 +16970,7 @@
           <xm:sqref>AQ19:AR19 AR20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="441" id="{A9CAEF4A-5C55-4D06-8255-654EF8F96B02}">
+          <x14:cfRule type="iconSet" priority="446" id="{A9CAEF4A-5C55-4D06-8255-654EF8F96B02}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16911,7 +16989,7 @@
           <xm:sqref>AQ21:AR23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="431" id="{09BEDE69-2157-47EC-B648-1CE804B151B1}">
+          <x14:cfRule type="iconSet" priority="436" id="{09BEDE69-2157-47EC-B648-1CE804B151B1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16930,7 +17008,7 @@
           <xm:sqref>AQ24:AR24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="376" id="{C8DB3C60-456C-4545-A6C0-E0C5ACB30124}">
+          <x14:cfRule type="iconSet" priority="381" id="{C8DB3C60-456C-4545-A6C0-E0C5ACB30124}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16949,7 +17027,7 @@
           <xm:sqref>AQ26:AR26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="314" id="{04E9CB0D-0D6C-443B-92D0-A6EED9BD1BC5}">
+          <x14:cfRule type="iconSet" priority="319" id="{04E9CB0D-0D6C-443B-92D0-A6EED9BD1BC5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16968,7 +17046,7 @@
           <xm:sqref>AQ30:AR30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="304" id="{E91CDEB4-0516-46C5-9ACF-2A5ADB2CFBA5}">
+          <x14:cfRule type="iconSet" priority="309" id="{E91CDEB4-0516-46C5-9ACF-2A5ADB2CFBA5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -16987,7 +17065,7 @@
           <xm:sqref>AQ32:AR32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="332" id="{698F5539-62C6-4DB6-8D91-0CAA4D15A8FC}">
+          <x14:cfRule type="iconSet" priority="337" id="{698F5539-62C6-4DB6-8D91-0CAA4D15A8FC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17006,7 +17084,7 @@
           <xm:sqref>AQ33:AR33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="281" id="{202951F9-AB22-419F-8EFD-FA6E9055B98B}">
+          <x14:cfRule type="iconSet" priority="286" id="{202951F9-AB22-419F-8EFD-FA6E9055B98B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17025,7 +17103,7 @@
           <xm:sqref>AQ34:AR34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="258" id="{D5B83DBE-0163-4943-9FC8-48BA2F6F4BF4}">
+          <x14:cfRule type="iconSet" priority="263" id="{D5B83DBE-0163-4943-9FC8-48BA2F6F4BF4}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17044,7 +17122,7 @@
           <xm:sqref>AQ36:AR36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="779" id="{77D9B8FB-0EE0-4818-8AB8-1F831E674C77}">
+          <x14:cfRule type="iconSet" priority="784" id="{77D9B8FB-0EE0-4818-8AB8-1F831E674C77}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17063,7 +17141,7 @@
           <xm:sqref>AQ18:AS18 AS13:AS17 AS7:AS11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1443" id="{0EFB2A99-2CEE-4F30-8510-21064C54E06E}">
+          <x14:cfRule type="iconSet" priority="1448" id="{0EFB2A99-2CEE-4F30-8510-21064C54E06E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17082,7 +17160,7 @@
           <xm:sqref>AR28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="12" id="{44912CF3-2583-4D1A-BB2D-7B900106548A}">
+          <x14:cfRule type="iconSet" priority="17" id="{44912CF3-2583-4D1A-BB2D-7B900106548A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17101,7 +17179,7 @@
           <xm:sqref>AR31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="252" id="{0ACC839F-7C90-47F8-AF71-2B7AA289F0DE}">
+          <x14:cfRule type="iconSet" priority="257" id="{0ACC839F-7C90-47F8-AF71-2B7AA289F0DE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17120,7 +17198,7 @@
           <xm:sqref>AR35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="250" id="{A719F554-3278-4214-B57B-1200D154AA80}">
+          <x14:cfRule type="iconSet" priority="255" id="{A719F554-3278-4214-B57B-1200D154AA80}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17139,7 +17217,7 @@
           <xm:sqref>AR37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="874" id="{CF1D6B8C-0B48-4E6F-BCBD-A8A4F4326EDD}">
+          <x14:cfRule type="iconSet" priority="879" id="{CF1D6B8C-0B48-4E6F-BCBD-A8A4F4326EDD}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17158,7 +17236,7 @@
           <xm:sqref>AS19:AS20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1444" id="{3B0E8B7F-B90F-4549-9327-37F8A1414872}">
+          <x14:cfRule type="iconSet" priority="1449" id="{3B0E8B7F-B90F-4549-9327-37F8A1414872}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17177,7 +17255,7 @@
           <xm:sqref>AS21:AS37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="102" id="{24B2F724-4969-4853-8BAE-546DE5E52915}">
+          <x14:cfRule type="iconSet" priority="107" id="{24B2F724-4969-4853-8BAE-546DE5E52915}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17196,7 +17274,7 @@
           <xm:sqref>AT7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="98" id="{EBD5FBBD-65AB-4969-9F7D-277545BBAAC4}">
+          <x14:cfRule type="iconSet" priority="103" id="{EBD5FBBD-65AB-4969-9F7D-277545BBAAC4}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17215,7 +17293,7 @@
           <xm:sqref>AT11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="99" id="{CD381D2B-C010-4C62-95C4-922103907B59}">
+          <x14:cfRule type="iconSet" priority="104" id="{CD381D2B-C010-4C62-95C4-922103907B59}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17234,7 +17312,7 @@
           <xm:sqref>AT14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="100" id="{09DB61BC-E704-4980-90F7-ACC052DDCB92}">
+          <x14:cfRule type="iconSet" priority="105" id="{09DB61BC-E704-4980-90F7-ACC052DDCB92}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17253,7 +17331,7 @@
           <xm:sqref>AT15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="101" id="{4A623192-3542-4D4D-BEFB-2D962E237053}">
+          <x14:cfRule type="iconSet" priority="106" id="{4A623192-3542-4D4D-BEFB-2D962E237053}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17272,7 +17350,7 @@
           <xm:sqref>AT16:AT17 AT10 AT13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="112" id="{4B26B182-76D3-4BE2-A0D7-CA086ED1332C}">
+          <x14:cfRule type="iconSet" priority="117" id="{4B26B182-76D3-4BE2-A0D7-CA086ED1332C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17291,7 +17369,7 @@
           <xm:sqref>AT18 AT8:AT9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="113" id="{FCA7FB03-EA7C-4BCE-8BC4-0E164B1CD361}">
+          <x14:cfRule type="iconSet" priority="118" id="{FCA7FB03-EA7C-4BCE-8BC4-0E164B1CD361}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17310,7 +17388,7 @@
           <xm:sqref>AT19:AT20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="111" id="{4991D98C-000E-4997-AF26-F36A5556DB2A}">
+          <x14:cfRule type="iconSet" priority="116" id="{4991D98C-000E-4997-AF26-F36A5556DB2A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17329,7 +17407,7 @@
           <xm:sqref>AT21:AT24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="114" id="{5E21FCEB-ECA1-4814-8029-C2A48E7416D5}">
+          <x14:cfRule type="iconSet" priority="119" id="{5E21FCEB-ECA1-4814-8029-C2A48E7416D5}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17348,7 +17426,7 @@
           <xm:sqref>AT25:AT26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="116" id="{D2CA0745-9AD6-4087-852B-684F25FB1517}">
+          <x14:cfRule type="iconSet" priority="121" id="{D2CA0745-9AD6-4087-852B-684F25FB1517}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17367,7 +17445,7 @@
           <xm:sqref>AT27:AT28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="115" id="{6B8C2197-079C-48EF-8138-8032B1F93FBA}">
+          <x14:cfRule type="iconSet" priority="120" id="{6B8C2197-079C-48EF-8138-8032B1F93FBA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17386,7 +17464,7 @@
           <xm:sqref>AT29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="108" id="{0605A3F5-76C7-470C-B074-8D20AA769632}">
+          <x14:cfRule type="iconSet" priority="113" id="{0605A3F5-76C7-470C-B074-8D20AA769632}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17405,7 +17483,7 @@
           <xm:sqref>AT30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="109" id="{7765C22B-0400-4E5C-B3F3-7E0C15CCC593}">
+          <x14:cfRule type="iconSet" priority="114" id="{7765C22B-0400-4E5C-B3F3-7E0C15CCC593}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17424,7 +17502,7 @@
           <xm:sqref>AT31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="107" id="{97239D4D-7C53-41B0-9264-6E7D8DFDEB91}">
+          <x14:cfRule type="iconSet" priority="112" id="{97239D4D-7C53-41B0-9264-6E7D8DFDEB91}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17443,7 +17521,7 @@
           <xm:sqref>AT32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="110" id="{E4927773-BD4F-45CC-AD68-FD85EFAACA77}">
+          <x14:cfRule type="iconSet" priority="115" id="{E4927773-BD4F-45CC-AD68-FD85EFAACA77}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17462,7 +17540,7 @@
           <xm:sqref>AT33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="105" id="{41EF8EF9-B0D5-4AEB-A213-AA6F034BCF95}">
+          <x14:cfRule type="iconSet" priority="110" id="{41EF8EF9-B0D5-4AEB-A213-AA6F034BCF95}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17481,7 +17559,7 @@
           <xm:sqref>AT34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="106" id="{6BE2D1DD-A88C-4D4C-9B5F-83F1901D653F}">
+          <x14:cfRule type="iconSet" priority="111" id="{6BE2D1DD-A88C-4D4C-9B5F-83F1901D653F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17500,7 +17578,7 @@
           <xm:sqref>AT35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="103" id="{CE66EC92-3320-45BB-ABFE-2683D65D9CF3}">
+          <x14:cfRule type="iconSet" priority="108" id="{CE66EC92-3320-45BB-ABFE-2683D65D9CF3}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17519,7 +17597,7 @@
           <xm:sqref>AT36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="104" id="{F590A019-4CCD-4FD9-84ED-BD38DABE9572}">
+          <x14:cfRule type="iconSet" priority="109" id="{F590A019-4CCD-4FD9-84ED-BD38DABE9572}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17538,7 +17616,7 @@
           <xm:sqref>AT37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="97" id="{C2CD653F-79B0-4A7D-A234-AB63AFE496B9}">
+          <x14:cfRule type="iconSet" priority="102" id="{C2CD653F-79B0-4A7D-A234-AB63AFE496B9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17557,7 +17635,7 @@
           <xm:sqref>AU13:AU18 AU7:AU11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="85" id="{7948DEB8-EB72-4B8E-BB7B-250D3C70AE44}">
+          <x14:cfRule type="iconSet" priority="90" id="{7948DEB8-EB72-4B8E-BB7B-250D3C70AE44}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17576,7 +17654,7 @@
           <xm:sqref>AU20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="77" id="{D665CF2E-3A7E-414B-ABCF-C2B6A568B066}">
+          <x14:cfRule type="iconSet" priority="82" id="{D665CF2E-3A7E-414B-ABCF-C2B6A568B066}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17595,7 +17673,7 @@
           <xm:sqref>AU30 AU32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="11" id="{4B973A4F-C9C0-4583-9962-C3AE96FB2A1A}">
+          <x14:cfRule type="iconSet" priority="16" id="{4B973A4F-C9C0-4583-9962-C3AE96FB2A1A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17614,7 +17692,7 @@
           <xm:sqref>AU31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="80" id="{7B416F42-E27A-40AD-9773-7922A5123CCF}">
+          <x14:cfRule type="iconSet" priority="85" id="{7B416F42-E27A-40AD-9773-7922A5123CCF}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17633,7 +17711,7 @@
           <xm:sqref>AU33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="69" id="{BE8A8DF1-900D-4622-9E7C-AB99A1963121}">
+          <x14:cfRule type="iconSet" priority="74" id="{BE8A8DF1-900D-4622-9E7C-AB99A1963121}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17652,7 +17730,7 @@
           <xm:sqref>AU34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="8" id="{DCBC4465-C0AA-40E9-8401-A2BDD3A50849}">
+          <x14:cfRule type="iconSet" priority="13" id="{DCBC4465-C0AA-40E9-8401-A2BDD3A50849}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17671,7 +17749,7 @@
           <xm:sqref>AU35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="65" id="{1EC7884B-E5E9-464D-B7EA-7ABD2393C18A}">
+          <x14:cfRule type="iconSet" priority="70" id="{1EC7884B-E5E9-464D-B7EA-7ABD2393C18A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17690,7 +17768,7 @@
           <xm:sqref>AU37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="52" id="{1118803A-92A6-46BF-926C-CBE9FDD5321C}">
+          <x14:cfRule type="iconSet" priority="57" id="{1118803A-92A6-46BF-926C-CBE9FDD5321C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17709,7 +17787,7 @@
           <xm:sqref>AU36:AV36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="93" id="{A5EA2B8C-7767-4E6A-A0FC-2D3CB6E400AE}">
+          <x14:cfRule type="iconSet" priority="98" id="{A5EA2B8C-7767-4E6A-A0FC-2D3CB6E400AE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17728,7 +17806,7 @@
           <xm:sqref>AU12:AW12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="88" id="{B711E8A2-A770-4A5A-B56E-90A3D24DC974}">
+          <x14:cfRule type="iconSet" priority="93" id="{B711E8A2-A770-4A5A-B56E-90A3D24DC974}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17747,7 +17825,7 @@
           <xm:sqref>AU19:AY19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="87" id="{068648E4-91AD-40FE-BD12-F7465975978C}">
+          <x14:cfRule type="iconSet" priority="92" id="{068648E4-91AD-40FE-BD12-F7465975978C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17766,7 +17844,7 @@
           <xm:sqref>AU21:AY23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="86" id="{C55F7B1E-6161-4174-80A1-59821A16BC35}">
+          <x14:cfRule type="iconSet" priority="91" id="{C55F7B1E-6161-4174-80A1-59821A16BC35}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17785,7 +17863,7 @@
           <xm:sqref>AU24:AY24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="79" id="{EEAE5C83-4610-478B-AF33-65286A3D9A7F}">
+          <x14:cfRule type="iconSet" priority="84" id="{EEAE5C83-4610-478B-AF33-65286A3D9A7F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17804,7 +17882,7 @@
           <xm:sqref>AU25:AY25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="32" id="{1A292120-E3BD-4E7B-82E2-D0E17607D45B}">
+          <x14:cfRule type="iconSet" priority="37" id="{1A292120-E3BD-4E7B-82E2-D0E17607D45B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17823,7 +17901,7 @@
           <xm:sqref>AU26:AY26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="31" id="{E625265D-97D6-4CF7-935D-C4E832C3AA03}">
+          <x14:cfRule type="iconSet" priority="36" id="{E625265D-97D6-4CF7-935D-C4E832C3AA03}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17842,7 +17920,7 @@
           <xm:sqref>AU27:AY27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="30" id="{CFAD6623-972D-4D90-BE06-0B96B77B8151}">
+          <x14:cfRule type="iconSet" priority="35" id="{CFAD6623-972D-4D90-BE06-0B96B77B8151}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17861,7 +17939,7 @@
           <xm:sqref>AU28:AY28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="29" id="{FCDC0C32-8EDE-4E6C-B21C-AF655198A316}">
+          <x14:cfRule type="iconSet" priority="34" id="{FCDC0C32-8EDE-4E6C-B21C-AF655198A316}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17880,7 +17958,7 @@
           <xm:sqref>AU29:AY29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="91" id="{BD8EFF0C-B20A-4FBE-8372-05A8459684B3}">
+          <x14:cfRule type="iconSet" priority="96" id="{BD8EFF0C-B20A-4FBE-8372-05A8459684B3}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17899,7 +17977,7 @@
           <xm:sqref>AV7:AV9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="43" id="{54C88253-B146-4708-932D-C8A6E77EF615}">
+          <x14:cfRule type="iconSet" priority="48" id="{54C88253-B146-4708-932D-C8A6E77EF615}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17918,7 +17996,7 @@
           <xm:sqref>AV11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{33722308-58AC-4552-B976-B3942AAD6D18}">
+          <x14:cfRule type="iconSet" priority="50" id="{33722308-58AC-4552-B976-B3942AAD6D18}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17937,7 +18015,7 @@
           <xm:sqref>AV14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="39" id="{FA9338F2-8B0A-4297-B390-ECC1789593A6}">
+          <x14:cfRule type="iconSet" priority="44" id="{FA9338F2-8B0A-4297-B390-ECC1789593A6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17956,7 +18034,7 @@
           <xm:sqref>AV15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="49" id="{15C97BAA-0129-4041-8C8D-EE0336A495AB}">
+          <x14:cfRule type="iconSet" priority="54" id="{15C97BAA-0129-4041-8C8D-EE0336A495AB}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17975,7 +18053,7 @@
           <xm:sqref>AV16:AV17 AV10 AV13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="84" id="{452B4317-46D5-4F31-8D4E-CEB74F4F0D33}">
+          <x14:cfRule type="iconSet" priority="89" id="{452B4317-46D5-4F31-8D4E-CEB74F4F0D33}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -17994,7 +18072,7 @@
           <xm:sqref>AV20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="76" id="{6DF5DA91-5312-4683-8EBE-0B62786C8E01}">
+          <x14:cfRule type="iconSet" priority="81" id="{6DF5DA91-5312-4683-8EBE-0B62786C8E01}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18013,7 +18091,7 @@
           <xm:sqref>AV30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="10" id="{5B98D75F-EBD5-48E5-86A7-295E5E47428A}">
+          <x14:cfRule type="iconSet" priority="15" id="{5B98D75F-EBD5-48E5-86A7-295E5E47428A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18032,7 +18110,7 @@
           <xm:sqref>AV31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="66" id="{FCAEAB61-051C-4A68-9EB1-7F63103CA156}">
+          <x14:cfRule type="iconSet" priority="71" id="{FCAEAB61-051C-4A68-9EB1-7F63103CA156}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18051,7 +18129,7 @@
           <xm:sqref>AV34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="9" id="{85E0AACD-E158-4C50-AFE1-A44CA4C9D6C9}">
+          <x14:cfRule type="iconSet" priority="14" id="{85E0AACD-E158-4C50-AFE1-A44CA4C9D6C9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18070,7 +18148,7 @@
           <xm:sqref>AV35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="64" id="{9452E805-19FD-491A-931B-005EE81BB3B2}">
+          <x14:cfRule type="iconSet" priority="69" id="{9452E805-19FD-491A-931B-005EE81BB3B2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18089,7 +18167,7 @@
           <xm:sqref>AV37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="72" id="{795EF0C6-30A3-4F5D-BCCD-09F849E496E1}">
+          <x14:cfRule type="iconSet" priority="77" id="{795EF0C6-30A3-4F5D-BCCD-09F849E496E1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18108,7 +18186,7 @@
           <xm:sqref>AV32:AW32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="74" id="{15CBD005-259E-4C49-A4F1-081B06412959}">
+          <x14:cfRule type="iconSet" priority="79" id="{15CBD005-259E-4C49-A4F1-081B06412959}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18127,7 +18205,7 @@
           <xm:sqref>AV33:AW33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="33" id="{1C86CC19-E740-48F4-B55A-8F4268CB0931}">
+          <x14:cfRule type="iconSet" priority="38" id="{1C86CC19-E740-48F4-B55A-8F4268CB0931}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18146,7 +18224,7 @@
           <xm:sqref>AV18:AY18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="90" id="{B45B599C-78E0-4AA5-9C45-A2F37FD2DA18}">
+          <x14:cfRule type="iconSet" priority="95" id="{B45B599C-78E0-4AA5-9C45-A2F37FD2DA18}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18165,7 +18243,7 @@
           <xm:sqref>AW7:AW9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{95CF6004-B87F-45EA-97A9-223F866C3EDC}">
+          <x14:cfRule type="iconSet" priority="47" id="{95CF6004-B87F-45EA-97A9-223F866C3EDC}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18184,7 +18262,7 @@
           <xm:sqref>AW11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="47" id="{EDA9B0EA-2B69-49BA-AB17-871F88357C24}">
+          <x14:cfRule type="iconSet" priority="52" id="{EDA9B0EA-2B69-49BA-AB17-871F88357C24}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18203,7 +18281,7 @@
           <xm:sqref>AW14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="38" id="{7AE5912A-EAB2-41F4-809A-D71CCE34C2CE}">
+          <x14:cfRule type="iconSet" priority="43" id="{7AE5912A-EAB2-41F4-809A-D71CCE34C2CE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18222,7 +18300,7 @@
           <xm:sqref>AW15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="48" id="{867140F8-5BBE-41DD-8DF2-1FA99861C2D1}">
+          <x14:cfRule type="iconSet" priority="53" id="{867140F8-5BBE-41DD-8DF2-1FA99861C2D1}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18241,7 +18319,7 @@
           <xm:sqref>AW16:AW17 AW10 AW13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="83" id="{FA794719-7089-45D0-ACFA-28CA775672D9}">
+          <x14:cfRule type="iconSet" priority="88" id="{FA794719-7089-45D0-ACFA-28CA775672D9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18260,7 +18338,7 @@
           <xm:sqref>AW20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="56" id="{6407E04E-C2DE-4950-9F35-D24B56EEBE1E}">
+          <x14:cfRule type="iconSet" priority="61" id="{6407E04E-C2DE-4950-9F35-D24B56EEBE1E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18279,7 +18357,7 @@
           <xm:sqref>AW34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="68" id="{3732BF95-2404-40B6-BE89-A9E7DB3ECC2F}">
+          <x14:cfRule type="iconSet" priority="73" id="{3732BF95-2404-40B6-BE89-A9E7DB3ECC2F}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18298,7 +18376,7 @@
           <xm:sqref>AW35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="60" id="{B13553A4-BB4A-4085-82DB-55D5E69AEA4C}">
+          <x14:cfRule type="iconSet" priority="65" id="{B13553A4-BB4A-4085-82DB-55D5E69AEA4C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18317,7 +18395,7 @@
           <xm:sqref>AW36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="7" id="{82F89D6F-CFEF-452E-87A3-10263C4A0362}">
+          <x14:cfRule type="iconSet" priority="12" id="{82F89D6F-CFEF-452E-87A3-10263C4A0362}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18336,7 +18414,7 @@
           <xm:sqref>AW37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="75" id="{98B840B9-D82F-40CC-B337-29A6689D2C73}">
+          <x14:cfRule type="iconSet" priority="80" id="{98B840B9-D82F-40CC-B337-29A6689D2C73}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18355,7 +18433,7 @@
           <xm:sqref>AW30:AY30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="78" id="{6B01FA5C-DD41-489C-85A7-88ED39E225C7}">
+          <x14:cfRule type="iconSet" priority="83" id="{6B01FA5C-DD41-489C-85A7-88ED39E225C7}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18374,7 +18452,7 @@
           <xm:sqref>AW31:AY31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="35" id="{F159D6D8-D88B-4F7C-BA0E-503CE6876A3E}">
+          <x14:cfRule type="iconSet" priority="40" id="{F159D6D8-D88B-4F7C-BA0E-503CE6876A3E}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18393,7 +18471,7 @@
           <xm:sqref>AX12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="41" id="{BC8BCDE7-8F54-450E-9887-27BE6D0100C6}">
+          <x14:cfRule type="iconSet" priority="46" id="{BC8BCDE7-8F54-450E-9887-27BE6D0100C6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18412,7 +18490,7 @@
           <xm:sqref>AX13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="37" id="{EFC564FA-08FC-4631-9670-F4EEC2039CB4}">
+          <x14:cfRule type="iconSet" priority="42" id="{EFC564FA-08FC-4631-9670-F4EEC2039CB4}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18431,7 +18509,7 @@
           <xm:sqref>AX15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="82" id="{1BD686CC-274D-4763-BC2D-856A859AF725}">
+          <x14:cfRule type="iconSet" priority="87" id="{1BD686CC-274D-4763-BC2D-856A859AF725}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18450,7 +18528,7 @@
           <xm:sqref>AX20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{AE1754FF-95A7-454C-A19F-F00FA55AEEE0}">
+          <x14:cfRule type="iconSet" priority="62" id="{AE1754FF-95A7-454C-A19F-F00FA55AEEE0}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18469,7 +18547,7 @@
           <xm:sqref>AX32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{97743EAF-EFB8-48CB-AD8D-DEA6F8742698}">
+          <x14:cfRule type="iconSet" priority="59" id="{97743EAF-EFB8-48CB-AD8D-DEA6F8742698}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18488,7 +18566,7 @@
           <xm:sqref>AX34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="67" id="{4364A6EB-3C34-4C0E-8837-B11AC643AA10}">
+          <x14:cfRule type="iconSet" priority="72" id="{4364A6EB-3C34-4C0E-8837-B11AC643AA10}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18507,7 +18585,7 @@
           <xm:sqref>AX35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="51" id="{487A8612-5600-4B1C-94BD-3B06258CCE1C}">
+          <x14:cfRule type="iconSet" priority="56" id="{487A8612-5600-4B1C-94BD-3B06258CCE1C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18526,7 +18604,7 @@
           <xm:sqref>AX7:AY7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="16" id="{1C8DFB6A-4D09-46BA-AFB3-6746013F31EA}">
+          <x14:cfRule type="iconSet" priority="21" id="{1C8DFB6A-4D09-46BA-AFB3-6746013F31EA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18545,7 +18623,7 @@
           <xm:sqref>AX8:AY8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="89" id="{EBEC2CC4-03DF-496A-A3B4-BC258D252245}">
+          <x14:cfRule type="iconSet" priority="94" id="{EBEC2CC4-03DF-496A-A3B4-BC258D252245}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18564,7 +18642,7 @@
           <xm:sqref>AX9:AY9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="44" id="{653E86A6-FD21-4522-B66F-787EC3029ECD}">
+          <x14:cfRule type="iconSet" priority="49" id="{653E86A6-FD21-4522-B66F-787EC3029ECD}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18583,7 +18661,7 @@
           <xm:sqref>AX11:AY11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="46" id="{F237E834-7C7F-48E2-AD42-AB5ECD085D13}">
+          <x14:cfRule type="iconSet" priority="51" id="{F237E834-7C7F-48E2-AD42-AB5ECD085D13}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18602,7 +18680,7 @@
           <xm:sqref>AX14:AY14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="50" id="{5EEF2FE1-A14E-4DE6-88DC-72EE5C46A0DB}">
+          <x14:cfRule type="iconSet" priority="55" id="{5EEF2FE1-A14E-4DE6-88DC-72EE5C46A0DB}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18621,7 +18699,7 @@
           <xm:sqref>AX16:AY17 AX10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="73" id="{5CB7D575-2EA6-453B-BBCD-2154C0C69539}">
+          <x14:cfRule type="iconSet" priority="78" id="{5CB7D575-2EA6-453B-BBCD-2154C0C69539}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18640,7 +18718,7 @@
           <xm:sqref>AX33:AY33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="53" id="{6BA55005-652E-450B-A6C7-9DB575125C17}">
+          <x14:cfRule type="iconSet" priority="58" id="{6BA55005-652E-450B-A6C7-9DB575125C17}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18659,7 +18737,7 @@
           <xm:sqref>AX36:AY36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="6" id="{DD67FEB0-C9F7-46BF-94D3-FEF089140C57}">
+          <x14:cfRule type="iconSet" priority="11" id="{DD67FEB0-C9F7-46BF-94D3-FEF089140C57}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18678,7 +18756,7 @@
           <xm:sqref>AX37:AY37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="34" id="{9707F011-646B-4813-A334-27EA596273EE}">
+          <x14:cfRule type="iconSet" priority="39" id="{9707F011-646B-4813-A334-27EA596273EE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18697,7 +18775,7 @@
           <xm:sqref>AY10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="96" id="{DF6AACAE-868C-4AAF-B3BB-36AC424C911B}">
+          <x14:cfRule type="iconSet" priority="101" id="{DF6AACAE-868C-4AAF-B3BB-36AC424C911B}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18716,7 +18794,7 @@
           <xm:sqref>AY12 AU6:AY6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="40" id="{82A29787-E358-46CA-8B5E-4FB2C961CD3C}">
+          <x14:cfRule type="iconSet" priority="45" id="{82A29787-E358-46CA-8B5E-4FB2C961CD3C}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18735,7 +18813,7 @@
           <xm:sqref>AY13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="36" id="{6E243DBC-4AC7-4183-8694-0E55435F562A}">
+          <x14:cfRule type="iconSet" priority="41" id="{6E243DBC-4AC7-4183-8694-0E55435F562A}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18754,7 +18832,7 @@
           <xm:sqref>AY15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="81" id="{DB64926B-7919-448B-BF53-386EDB6E80AA}">
+          <x14:cfRule type="iconSet" priority="86" id="{DB64926B-7919-448B-BF53-386EDB6E80AA}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18773,7 +18851,7 @@
           <xm:sqref>AY20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="58" id="{48D9E368-AA8A-4489-B340-1CA37650D0C8}">
+          <x14:cfRule type="iconSet" priority="63" id="{48D9E368-AA8A-4489-B340-1CA37650D0C8}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18792,7 +18870,7 @@
           <xm:sqref>AY32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="55" id="{4CDE0399-78BA-4B61-8939-77468134BEAE}">
+          <x14:cfRule type="iconSet" priority="60" id="{4CDE0399-78BA-4B61-8939-77468134BEAE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18811,7 +18889,7 @@
           <xm:sqref>AY34</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="59" id="{48685FBC-39AF-460C-B79D-AF584B251B03}">
+          <x14:cfRule type="iconSet" priority="64" id="{48685FBC-39AF-460C-B79D-AF584B251B03}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18830,7 +18908,7 @@
           <xm:sqref>AY35</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="27" id="{4A7B3364-A4DA-4E94-A21B-4B713A8C70B6}">
+          <x14:cfRule type="iconSet" priority="32" id="{4A7B3364-A4DA-4E94-A21B-4B713A8C70B6}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18849,7 +18927,7 @@
           <xm:sqref>AZ12 AZ6</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="25" id="{7206FB03-18FE-4485-AE2C-FBFED89B19D9}">
+          <x14:cfRule type="iconSet" priority="30" id="{7206FB03-18FE-4485-AE2C-FBFED89B19D9}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18868,7 +18946,7 @@
           <xm:sqref>AZ13:AZ18 AZ7:AZ11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="26" id="{8B55D9FB-265A-42BB-BDF9-44AA4FF5E9E2}">
+          <x14:cfRule type="iconSet" priority="31" id="{8B55D9FB-265A-42BB-BDF9-44AA4FF5E9E2}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18887,7 +18965,7 @@
           <xm:sqref>AZ19:AZ20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="28" id="{44A19C99-070E-4D08-802F-7964938F55EE}">
+          <x14:cfRule type="iconSet" priority="33" id="{44A19C99-070E-4D08-802F-7964938F55EE}">
             <x14:iconSet showValue="0" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -18906,80 +18984,99 @@
           <xm:sqref>AZ21:AZ37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="4" id="{7F97C0FB-08AF-4CEC-A1EE-9CF883526CD8}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AD17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="3" id="{7E8785AE-CE2F-4AE1-9C0E-8DD819A9DAA1}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AC17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{8628A3EB-1EDD-474F-B0F9-10878B689452}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AB17</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{B118DF70-3A65-44E2-80F4-D70F1F580C19}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>2</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Signs" iconId="0"/>
-              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
-              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>AA17</xm:sqref>
+          <x14:cfRule type="iconSet" priority="5" id="{5DC2AF56-31C5-4DC2-AC7A-DE60787EA7C3}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AG17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="4" id="{993378AE-3CC9-4B16-A5A3-57C16320CC55}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AH17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="3" id="{FBE6943C-B218-4DDC-9D5E-24D5174BD9FC}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AI17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="2" id="{66BC1BAA-54D9-4750-B332-378AF1784AF3}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AJ17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="1" id="{5B72A774-85CC-4624-BCA0-58988F295394}">
+            <x14:iconSet showValue="0" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>2</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Signs" iconId="0"/>
+              <x14:cfIcon iconSet="3Symbols2" iconId="1"/>
+              <x14:cfIcon iconSet="3Symbols" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>AK17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/programacao/14 - Programação Semanal Utilidades_Athos.xlsx
+++ b/programacao/14 - Programação Semanal Utilidades_Athos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montisolbr-my.sharepoint.com/personal/suleima_caldas_montisol_com_br/Documents/1.CONTRATOS HYDRO/CT_4600011662_Utilidades/02.PLANEJAMENTO/01 - Base de dados BI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1146" documentId="8_{F26479AB-B6DB-430F-AF6D-7BBE334D3765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F643455-2038-414F-8D40-694138956D7E}"/>
+  <xr:revisionPtr revIDLastSave="1151" documentId="8_{F26479AB-B6DB-430F-AF6D-7BBE334D3765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A46C0DCD-602B-436D-BE1A-495662896C46}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PROGRAMAÇÃO" sheetId="17" state="hidden" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="324">
   <si>
     <t>EDT</t>
   </si>
@@ -1040,6 +1040,9 @@
   </si>
   <si>
     <t>Utilização de guindaste</t>
+  </si>
+  <si>
+    <t>Reprogramada, atividade não pôde ocorrer, atividade não liberada pela operação</t>
   </si>
 </sst>
 </file>
@@ -36166,8 +36169,8 @@
   </sheetPr>
   <dimension ref="A2:BM64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="17" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AZ25" sqref="AZ25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="17" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="CG15" sqref="CG15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
@@ -38239,7 +38242,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="55" t="s">
-        <v>265</v>
+        <v>323</v>
       </c>
       <c r="P23" s="55"/>
       <c r="Q23" s="55"/>
@@ -50752,8 +50755,8 @@
   </sheetPr>
   <dimension ref="A2:BM32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="27" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="AZ9" sqref="AZ9"/>
+    <sheetView showGridLines="0" zoomScale="27" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="31.2" x14ac:dyDescent="0.6"/>
